--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\06- Program Areas\California\CA EPS\California data inputs\fuels\BSoFPtiT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19080" windowHeight="7440" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19080" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 59" sheetId="4" r:id="rId2"/>
-    <sheet name="electricity" sheetId="5" r:id="rId3"/>
-    <sheet name="utility users tax" sheetId="6" r:id="rId4"/>
-    <sheet name="natural gas PPP surcharge" sheetId="8" r:id="rId5"/>
-    <sheet name="biofuel taxes" sheetId="9" r:id="rId6"/>
-    <sheet name="gasoline-diesel tax details" sheetId="10" r:id="rId7"/>
-    <sheet name="gas calculations" sheetId="11" r:id="rId8"/>
-    <sheet name="diesel calculations" sheetId="12" r:id="rId9"/>
-    <sheet name="biodiesel calculations" sheetId="13" r:id="rId10"/>
-    <sheet name="BSoFPtiT" sheetId="3" r:id="rId11"/>
+    <sheet name="natural gas PPP surcharge" sheetId="8" r:id="rId3"/>
+    <sheet name="biofuel taxes" sheetId="9" r:id="rId4"/>
+    <sheet name="gasoline-diesel tax details" sheetId="10" r:id="rId5"/>
+    <sheet name="gas calculations" sheetId="11" r:id="rId6"/>
+    <sheet name="diesel calculations" sheetId="12" r:id="rId7"/>
+    <sheet name="biodiesel calculations" sheetId="13" r:id="rId8"/>
+    <sheet name="BSoFPtiT" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t>Source:</t>
   </si>
@@ -187,9 +180,6 @@
     <t>Currency Year Adjustment</t>
   </si>
   <si>
-    <t>Since we are taking a ratio of dollar values, we do not need to convert from 2013 to 2012 dollars.</t>
-  </si>
-  <si>
     <t>geothermal (does not use fuel)</t>
   </si>
   <si>
@@ -334,15 +324,6 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>The average rate (mean) is 5.4 percent with a standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility Users Tax </t>
-  </si>
-  <si>
-    <t>http://www.californiacityfinance.com/UUTfacts17.pdf</t>
-  </si>
-  <si>
     <t>http://www.cpuc.ca.gov/uploadedFiles/CPUCWebsite/Content/About_Us/Organization/Divisions/Office_of_Governmental_Affairs/Legislation/2017/AB67_Leg_Report_PDF_Final_5-5-17.pdf</t>
   </si>
   <si>
@@ -371,9 +352,6 @@
   </si>
   <si>
     <t>five year average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bill below shows separate application of this and the PPP surcharge on gas.  That approach is carried through the calculations. </t>
   </si>
   <si>
     <t>Noting applicability to biofuels</t>
@@ -500,84 +478,6 @@
     <t xml:space="preserve">2017 value reduced by 12 cents for gasoline and 20 cents for diesel fuel. </t>
   </si>
   <si>
-    <t>Cost in national model</t>
-  </si>
-  <si>
-    <t>Cost per BTU petroleum gasoline in E3</t>
-  </si>
-  <si>
-    <t>Lower value in California contradicts reality and brings to fore the difference between price and cost (technically "Delivered Final Energy Cost")</t>
-  </si>
-  <si>
-    <t>The E3 data do not reflect the retail price but rather production cost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is less problematic for natural gas and electricity given the rate of return regulation which largely dictates </t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/dnav/pet/hist/LeafHandler.ashx?n=pet&amp;s=emm_epm0_pte_nus_dpg&amp;f=a</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/dnav/pet/pet_pri_gnd_dcus_sca_a.htm</t>
-  </si>
-  <si>
-    <t>Back to Contents</t>
-  </si>
-  <si>
-    <t>Data 1: U.S. All Grades All Formulations Retail Gasoline Prices (Dollars per Gallon)</t>
-  </si>
-  <si>
-    <t>Data 1: California Gasoline and Diesel Retail Prices</t>
-  </si>
-  <si>
-    <t>Sourcekey</t>
-  </si>
-  <si>
-    <t>EMM_EPM0_PTE_NUS_DPG</t>
-  </si>
-  <si>
-    <t>EMM_EPM0_PTE_SCA_DPG</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>U.S. All Grades All Formulations Retail Gasoline Prices (Dollars per Gallon)</t>
-  </si>
-  <si>
-    <t>California All Grades All Formulations Retail Gasoline Prices (Dollars per Gallon)</t>
-  </si>
-  <si>
-    <t>Convert to $ per Btu using value shown below</t>
-  </si>
-  <si>
-    <t>$/gallon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways documentation notes: </t>
-  </si>
-  <si>
-    <t>The BFSM uses lower heating value accounting; PATHWAYS converts all values to be consistent with higher heating value accounting.</t>
-  </si>
-  <si>
-    <t>Thereofore, we use HHV for consistency</t>
-  </si>
-  <si>
-    <t>Btu per gallon in CA gasoline per GREET 3</t>
-  </si>
-  <si>
-    <t>Btu per gallon in low sulfur diesel from same source</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Transportation Sector Price ($/GJ)</t>
-  </si>
-  <si>
-    <t>price in $/gallon</t>
-  </si>
-  <si>
     <t>state and federal taxes</t>
   </si>
   <si>
@@ -590,9 +490,6 @@
     <t>$/gal</t>
   </si>
   <si>
-    <t>$/EJ - E3</t>
-  </si>
-  <si>
     <t>historical data -- other years imputed via changes in cost</t>
   </si>
   <si>
@@ -606,22 +503,28 @@
   </si>
   <si>
     <t>From BAU cost of fuel variable</t>
+  </si>
+  <si>
+    <t>Since we are taking a ratio of dollar values, we do not need to convert for currency year.</t>
+  </si>
+  <si>
+    <t>From BAU fuel price spreadsheet</t>
+  </si>
+  <si>
+    <t>2016 value is prior to start year for model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;0.####"/>
-    <numFmt numFmtId="167" formatCode="0.####"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;0.####"/>
+    <numFmt numFmtId="166" formatCode="0.####"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,13 +606,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -803,32 +699,8 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,14 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -969,17 +835,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,8 +872,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1026,19 +882,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFont="0" applyFill="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1046,7 +902,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1103,10 +959,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1116,14 +972,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="24">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="23">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6">
       <alignment wrapText="1"/>
     </xf>
@@ -1134,59 +990,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="24" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="23" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="5" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="24" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="11" xfId="23" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="24" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="23" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="20" quotePrefix="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="22" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1196,32 +1031,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="24">
     <cellStyle name="Body: normal cell" xfId="5"/>
     <cellStyle name="Body: normal cell 2" xfId="11"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
     <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13"/>
-    <cellStyle name="Footnotes: all except top row" xfId="17"/>
+    <cellStyle name="Footnotes: all except top row" xfId="16"/>
     <cellStyle name="Footnotes: top row" xfId="7"/>
     <cellStyle name="Footnotes: top row 2" xfId="9"/>
     <cellStyle name="Header: bottom row" xfId="3"/>
     <cellStyle name="Header: bottom row 2" xfId="12"/>
-    <cellStyle name="Header: top rows" xfId="18"/>
+    <cellStyle name="Header: top rows" xfId="17"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="20"/>
-    <cellStyle name="Hyperlink 3" xfId="21"/>
-    <cellStyle name="Hyperlink 4" xfId="19"/>
+    <cellStyle name="Hyperlink 2" xfId="19"/>
+    <cellStyle name="Hyperlink 3" xfId="20"/>
+    <cellStyle name="Hyperlink 4" xfId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="22"/>
+    <cellStyle name="Normal 3" xfId="21"/>
     <cellStyle name="Parent row" xfId="6"/>
     <cellStyle name="Parent row 2" xfId="10"/>
-    <cellStyle name="Section Break" xfId="23"/>
-    <cellStyle name="Section Break: parent row" xfId="24"/>
+    <cellStyle name="Section Break" xfId="22"/>
+    <cellStyle name="Section Break: parent row" xfId="23"/>
     <cellStyle name="Table title" xfId="4"/>
     <cellStyle name="Table title 2" xfId="14"/>
   </cellStyles>
@@ -1269,49 +1102,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>174315</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="814388" y="2047875"/>
-          <a:ext cx="8110538" cy="7899090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1430,7 +1220,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1462,49 +1252,6 @@
         <a:xfrm>
           <a:off x="390525" y="4371975"/>
           <a:ext cx="2871372" cy="2647950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>380262</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5338763" y="10615613"/>
-          <a:ext cx="4266462" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1559,7 +1306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,7 +1341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1805,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1840,7 +1587,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,7 +1668,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1933,3035 +1680,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ13"/>
-  <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AJ4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="28">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="28">
-        <f>B1+1</f>
-        <v>2017</v>
-      </c>
-      <c r="D1" s="28">
-        <f>C1+1</f>
-        <v>2018</v>
-      </c>
-      <c r="E1" s="28">
-        <f t="shared" ref="E1:AJ1" si="0">D1+1</f>
-        <v>2019</v>
-      </c>
-      <c r="F1" s="28">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="G1" s="28">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="H1" s="28">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="I1" s="28">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="J1" s="28">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="K1" s="28">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="L1" s="28">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="M1" s="28">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="N1" s="28">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="O1" s="28">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="P1" s="28">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="Q1" s="28">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="R1" s="28">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="S1" s="28">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="T1" s="28">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="U1" s="28">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="V1" s="28">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="W1" s="28">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="X1" s="28">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="Y1" s="28">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="Z1" s="28">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="AA1" s="28">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="AB1" s="28">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="AC1" s="28">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="AD1" s="28">
-        <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="AE1" s="28">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="AF1" s="28">
-        <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-      <c r="AG1" s="28">
-        <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="AH1" s="28">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="AI1" s="28">
-        <f t="shared" si="0"/>
-        <v>2049</v>
-      </c>
-      <c r="AJ1" s="28">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="28">
-        <v>4.3378985347546415</v>
-      </c>
-      <c r="C2" s="28">
-        <v>4.7007472474704333</v>
-      </c>
-      <c r="D2" s="28">
-        <v>4.7258714133519124</v>
-      </c>
-      <c r="E2" s="28">
-        <v>4.722226791766043</v>
-      </c>
-      <c r="F2" s="28">
-        <v>4.7401946878660697</v>
-      </c>
-      <c r="G2" s="28">
-        <v>4.7592788313638881</v>
-      </c>
-      <c r="H2" s="28">
-        <v>4.766189843416667</v>
-      </c>
-      <c r="I2" s="28">
-        <v>4.7050550976587449</v>
-      </c>
-      <c r="J2" s="28">
-        <v>4.6989774299765914</v>
-      </c>
-      <c r="K2" s="28">
-        <v>4.6928095042850444</v>
-      </c>
-      <c r="L2" s="28">
-        <v>4.6862898491127352</v>
-      </c>
-      <c r="M2" s="28">
-        <v>4.6792811274817065</v>
-      </c>
-      <c r="N2" s="28">
-        <v>4.6716331040466539</v>
-      </c>
-      <c r="O2" s="28">
-        <v>4.6631661770616155</v>
-      </c>
-      <c r="P2" s="28">
-        <v>4.6534823240974532</v>
-      </c>
-      <c r="Q2" s="28">
-        <v>5.0641277945056791</v>
-      </c>
-      <c r="R2" s="28">
-        <v>5.0518863845997348</v>
-      </c>
-      <c r="S2" s="28">
-        <v>5.0389704593867375</v>
-      </c>
-      <c r="T2" s="28">
-        <v>5.0241563540952709</v>
-      </c>
-      <c r="U2" s="28">
-        <v>5.4268900676355747</v>
-      </c>
-      <c r="V2" s="28">
-        <v>5.3995408352377581</v>
-      </c>
-      <c r="W2" s="28">
-        <v>5.3833346900831538</v>
-      </c>
-      <c r="X2" s="28">
-        <v>5.3509536887255571</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>5.3173186599721749</v>
-      </c>
-      <c r="Z2" s="28">
-        <v>5.2619711701955767</v>
-      </c>
-      <c r="AA2" s="28">
-        <v>5.2369415288573054</v>
-      </c>
-      <c r="AB2" s="28">
-        <v>5.9946793778961425</v>
-      </c>
-      <c r="AC2" s="28">
-        <v>6.0055323075104017</v>
-      </c>
-      <c r="AD2" s="28">
-        <v>6.010445218480795</v>
-      </c>
-      <c r="AE2" s="28">
-        <v>6.0140554455173643</v>
-      </c>
-      <c r="AF2" s="28">
-        <v>6.0177373238520522</v>
-      </c>
-      <c r="AG2" s="28">
-        <v>6.021492150290495</v>
-      </c>
-      <c r="AH2" s="28">
-        <v>6.0253435360044652</v>
-      </c>
-      <c r="AI2" s="28">
-        <v>6.0292500785522209</v>
-      </c>
-      <c r="AJ2" s="28">
-        <v>6.0405179306778125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="28">
-        <f>D3-0.2</f>
-        <v>0.67555000000000009</v>
-      </c>
-      <c r="C3" s="28">
-        <f>D3-0.2</f>
-        <v>0.67555000000000009</v>
-      </c>
-      <c r="D3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="E3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="F3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="G3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="H3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="I3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="J3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="K3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="L3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="M3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="N3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="O3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="P3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="Q3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="R3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="S3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="T3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="U3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="V3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="W3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="X3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="Y3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="Z3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AA3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AB3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AC3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AD3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AE3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AF3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AG3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AH3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AI3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-      <c r="AJ3" s="28">
-        <f>'gasoline-diesel tax details'!$J$7</f>
-        <v>0.87555000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="28">
-        <f t="shared" ref="B4:AJ4" si="1">B3/B2</f>
-        <v>0.15573208884154094</v>
-      </c>
-      <c r="C4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14371119407952154</v>
-      </c>
-      <c r="D4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18526741915286263</v>
-      </c>
-      <c r="E4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18541040881955551</v>
-      </c>
-      <c r="F4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18470760330608979</v>
-      </c>
-      <c r="G4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18396694772957645</v>
-      </c>
-      <c r="H4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18370019423572889</v>
-      </c>
-      <c r="I4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.186087087574315</v>
-      </c>
-      <c r="J4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18632777302025938</v>
-      </c>
-      <c r="K4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18657267020971721</v>
-      </c>
-      <c r="L4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1868322336412396</v>
-      </c>
-      <c r="M4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1871120747282827</v>
-      </c>
-      <c r="N4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.18741839962594295</v>
-      </c>
-      <c r="O4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1877586958635275</v>
-      </c>
-      <c r="P4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1881494199443024</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.17289255633515552</v>
-      </c>
-      <c r="R4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.17331149858576453</v>
-      </c>
-      <c r="S4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.17375573186165452</v>
-      </c>
-      <c r="T4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.17426806378872448</v>
-      </c>
-      <c r="U4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16133549585268561</v>
-      </c>
-      <c r="V4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16215267681394374</v>
-      </c>
-      <c r="W4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16264082588305054</v>
-      </c>
-      <c r="X4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16362503787778637</v>
-      </c>
-      <c r="Y4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16466005819643348</v>
-      </c>
-      <c r="Z4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16639201768326253</v>
-      </c>
-      <c r="AA4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16718727814229464</v>
-      </c>
-      <c r="AB4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1460545168150891</v>
-      </c>
-      <c r="AC4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14579057361910355</v>
-      </c>
-      <c r="AD4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14567140505796089</v>
-      </c>
-      <c r="AE4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14558395876655908</v>
-      </c>
-      <c r="AF4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.1454948850176043</v>
-      </c>
-      <c r="AG4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14540415866153059</v>
-      </c>
-      <c r="AH4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14531121665812868</v>
-      </c>
-      <c r="AI4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14521706490738934</v>
-      </c>
-      <c r="AJ4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.14494618012031193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="28">
-        <v>3.0670000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="28">
-        <v>2.6539999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="28">
-        <v>4.3378985347546415</v>
-      </c>
-      <c r="C13" s="28">
-        <v>4.7007472474704333</v>
-      </c>
-      <c r="D13" s="28">
-        <v>4.7258714133519124</v>
-      </c>
-      <c r="E13" s="28">
-        <v>4.722226791766043</v>
-      </c>
-      <c r="F13" s="28">
-        <v>4.7401946878660697</v>
-      </c>
-      <c r="G13" s="28">
-        <v>4.7592788313638881</v>
-      </c>
-      <c r="H13" s="28">
-        <v>4.766189843416667</v>
-      </c>
-      <c r="I13" s="28">
-        <v>4.7050550976587449</v>
-      </c>
-      <c r="J13" s="28">
-        <v>4.6989774299765914</v>
-      </c>
-      <c r="K13" s="28">
-        <v>4.6928095042850444</v>
-      </c>
-      <c r="L13" s="28">
-        <v>4.6862898491127352</v>
-      </c>
-      <c r="M13" s="28">
-        <v>4.6792811274817065</v>
-      </c>
-      <c r="N13" s="28">
-        <v>4.6716331040466539</v>
-      </c>
-      <c r="O13" s="28">
-        <v>4.6631661770616155</v>
-      </c>
-      <c r="P13" s="28">
-        <v>4.6534823240974532</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>5.0641277945056791</v>
-      </c>
-      <c r="R13" s="28">
-        <v>5.0518863845997348</v>
-      </c>
-      <c r="S13" s="28">
-        <v>5.0389704593867375</v>
-      </c>
-      <c r="T13" s="28">
-        <v>5.0241563540952709</v>
-      </c>
-      <c r="U13" s="28">
-        <v>5.4268900676355747</v>
-      </c>
-      <c r="V13" s="28">
-        <v>5.3995408352377581</v>
-      </c>
-      <c r="W13" s="28">
-        <v>5.3833346900831538</v>
-      </c>
-      <c r="X13" s="28">
-        <v>5.3509536887255571</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>5.3173186599721749</v>
-      </c>
-      <c r="Z13" s="28">
-        <v>5.2619711701955767</v>
-      </c>
-      <c r="AA13" s="28">
-        <v>5.2369415288573054</v>
-      </c>
-      <c r="AB13" s="28">
-        <v>5.9946793778961425</v>
-      </c>
-      <c r="AC13" s="28">
-        <v>6.0055323075104017</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>6.010445218480795</v>
-      </c>
-      <c r="AE13" s="28">
-        <v>6.0140554455173643</v>
-      </c>
-      <c r="AF13" s="28">
-        <v>6.0177373238520522</v>
-      </c>
-      <c r="AG13" s="28">
-        <v>6.021492150290495</v>
-      </c>
-      <c r="AH13" s="28">
-        <v>6.0253435360044652</v>
-      </c>
-      <c r="AI13" s="28">
-        <v>6.0292500785522209</v>
-      </c>
-      <c r="AJ13" s="28">
-        <v>6.0405179306778125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z2" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA2" s="65">
-        <f>TREND($Q2:$Z2,$Q$1:$Z$1,AA$1)</f>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB2" s="65">
-        <f t="shared" ref="AB2:AJ2" si="0">TREND($Q2:$Z2,$Q$1:$Z$1,AB$1)</f>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ2" s="65">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z3" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA3" s="65">
-        <f>TREND($Q3:$Z3,$Q$1:$Z$1,AA$1)</f>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB3" s="65">
-        <f t="shared" ref="AB3:AJ3" si="1">TREND($Q3:$Z3,$Q$1:$Z$1,AB$1)</f>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ3" s="65">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="C4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="D4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="E4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="F4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="G4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="H4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="I4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="J4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="K4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="L4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="M4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="N4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="O4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="P4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="Q4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="R4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="S4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="T4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="U4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="V4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="W4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="X4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="Y4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="Z4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AA4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AB4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AC4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AD4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AE4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AF4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AG4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AH4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AI4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-      <c r="AJ4" s="65">
-        <f>'natural gas PPP surcharge'!$H$30</f>
-        <v>7.3599291038765891E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z5" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA5" s="65">
-        <f t="shared" ref="AA5:AJ9" si="2">TREND($Q5:$Z5,$Q$1:$Z$1,AA$1)</f>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ5" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="65">
-        <v>0</v>
-      </c>
-      <c r="C6" s="65">
-        <v>0</v>
-      </c>
-      <c r="D6" s="65">
-        <v>0</v>
-      </c>
-      <c r="E6" s="65">
-        <v>0</v>
-      </c>
-      <c r="F6" s="65">
-        <v>0</v>
-      </c>
-      <c r="G6" s="65">
-        <v>0</v>
-      </c>
-      <c r="H6" s="65">
-        <v>0</v>
-      </c>
-      <c r="I6" s="65">
-        <v>0</v>
-      </c>
-      <c r="J6" s="65">
-        <v>0</v>
-      </c>
-      <c r="K6" s="65">
-        <v>0</v>
-      </c>
-      <c r="L6" s="65">
-        <v>0</v>
-      </c>
-      <c r="M6" s="65">
-        <v>0</v>
-      </c>
-      <c r="N6" s="65">
-        <v>0</v>
-      </c>
-      <c r="O6" s="65">
-        <v>0</v>
-      </c>
-      <c r="P6" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="65">
-        <v>0</v>
-      </c>
-      <c r="R6" s="65">
-        <v>0</v>
-      </c>
-      <c r="S6" s="65">
-        <v>0</v>
-      </c>
-      <c r="T6" s="65">
-        <v>0</v>
-      </c>
-      <c r="U6" s="65">
-        <v>0</v>
-      </c>
-      <c r="V6" s="65">
-        <v>0</v>
-      </c>
-      <c r="W6" s="65">
-        <v>0</v>
-      </c>
-      <c r="X6" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="65">
-        <v>0</v>
-      </c>
-      <c r="C7" s="65">
-        <v>0</v>
-      </c>
-      <c r="D7" s="65">
-        <v>0</v>
-      </c>
-      <c r="E7" s="65">
-        <v>0</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0</v>
-      </c>
-      <c r="G7" s="65">
-        <v>0</v>
-      </c>
-      <c r="H7" s="65">
-        <v>0</v>
-      </c>
-      <c r="I7" s="65">
-        <v>0</v>
-      </c>
-      <c r="J7" s="65">
-        <v>0</v>
-      </c>
-      <c r="K7" s="65">
-        <v>0</v>
-      </c>
-      <c r="L7" s="65">
-        <v>0</v>
-      </c>
-      <c r="M7" s="65">
-        <v>0</v>
-      </c>
-      <c r="N7" s="65">
-        <v>0</v>
-      </c>
-      <c r="O7" s="65">
-        <v>0</v>
-      </c>
-      <c r="P7" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="65">
-        <v>0</v>
-      </c>
-      <c r="R7" s="65">
-        <v>0</v>
-      </c>
-      <c r="S7" s="65">
-        <v>0</v>
-      </c>
-      <c r="T7" s="65">
-        <v>0</v>
-      </c>
-      <c r="U7" s="65">
-        <v>0</v>
-      </c>
-      <c r="V7" s="65">
-        <v>0</v>
-      </c>
-      <c r="W7" s="65">
-        <v>0</v>
-      </c>
-      <c r="X7" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="65">
-        <v>0</v>
-      </c>
-      <c r="C8" s="65">
-        <v>0</v>
-      </c>
-      <c r="D8" s="65">
-        <v>0</v>
-      </c>
-      <c r="E8" s="65">
-        <v>0</v>
-      </c>
-      <c r="F8" s="65">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="H8" s="65">
-        <v>0</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0</v>
-      </c>
-      <c r="L8" s="65">
-        <v>0</v>
-      </c>
-      <c r="M8" s="65">
-        <v>0</v>
-      </c>
-      <c r="N8" s="65">
-        <v>0</v>
-      </c>
-      <c r="O8" s="65">
-        <v>0</v>
-      </c>
-      <c r="P8" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="65">
-        <v>0</v>
-      </c>
-      <c r="R8" s="65">
-        <v>0</v>
-      </c>
-      <c r="S8" s="65">
-        <v>0</v>
-      </c>
-      <c r="T8" s="65">
-        <v>0</v>
-      </c>
-      <c r="U8" s="65">
-        <v>0</v>
-      </c>
-      <c r="V8" s="65">
-        <v>0</v>
-      </c>
-      <c r="W8" s="65">
-        <v>0</v>
-      </c>
-      <c r="X8" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z9" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ9" s="65">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="65">
-        <f>'gas calculations'!B5</f>
-        <v>0.19861610352264558</v>
-      </c>
-      <c r="C10" s="65">
-        <f>'gas calculations'!C5</f>
-        <v>0.21836038961038959</v>
-      </c>
-      <c r="D10" s="65">
-        <f>'gas calculations'!D5</f>
-        <v>0.21689100149552315</v>
-      </c>
-      <c r="E10" s="65">
-        <f>'gas calculations'!E5</f>
-        <v>0.21530233805822885</v>
-      </c>
-      <c r="F10" s="65">
-        <f>'gas calculations'!F5</f>
-        <v>0.21170262136661136</v>
-      </c>
-      <c r="G10" s="65">
-        <f>'gas calculations'!G5</f>
-        <v>0.20788081913341408</v>
-      </c>
-      <c r="H10" s="65">
-        <f>'gas calculations'!H5</f>
-        <v>0.20491971139182596</v>
-      </c>
-      <c r="I10" s="65">
-        <f>'gas calculations'!I5</f>
-        <v>0.20209087149576749</v>
-      </c>
-      <c r="J10" s="65">
-        <f>'gas calculations'!J5</f>
-        <v>0.19940104563009312</v>
-      </c>
-      <c r="K10" s="65">
-        <f>'gas calculations'!K5</f>
-        <v>0.19596039395205811</v>
-      </c>
-      <c r="L10" s="65">
-        <f>'gas calculations'!L5</f>
-        <v>0.19273115706027849</v>
-      </c>
-      <c r="M10" s="65">
-        <f>'gas calculations'!M5</f>
-        <v>0.18940075447800386</v>
-      </c>
-      <c r="N10" s="65">
-        <f>'gas calculations'!N5</f>
-        <v>0.18539248524787638</v>
-      </c>
-      <c r="O10" s="65">
-        <f>'gas calculations'!O5</f>
-        <v>0.1817968549585163</v>
-      </c>
-      <c r="P10" s="65">
-        <f>'gas calculations'!P5</f>
-        <v>0.17835214010444056</v>
-      </c>
-      <c r="Q10" s="65">
-        <f>'gas calculations'!Q5</f>
-        <v>0.1749895339560027</v>
-      </c>
-      <c r="R10" s="65">
-        <f>'gas calculations'!R5</f>
-        <v>0.17089313873424322</v>
-      </c>
-      <c r="S10" s="65">
-        <f>'gas calculations'!S5</f>
-        <v>0.16692721634667651</v>
-      </c>
-      <c r="T10" s="65">
-        <f>'gas calculations'!T5</f>
-        <v>0.16328191355428578</v>
-      </c>
-      <c r="U10" s="65">
-        <f>'gas calculations'!U5</f>
-        <v>0.15967515110409194</v>
-      </c>
-      <c r="V10" s="65">
-        <f>'gas calculations'!V5</f>
-        <v>0.15619328351364981</v>
-      </c>
-      <c r="W10" s="65">
-        <f>'gas calculations'!W5</f>
-        <v>0.15324772345066542</v>
-      </c>
-      <c r="X10" s="65">
-        <f>'gas calculations'!X5</f>
-        <v>0.14976701296334261</v>
-      </c>
-      <c r="Y10" s="65">
-        <f>'gas calculations'!Y5</f>
-        <v>0.1459984819528341</v>
-      </c>
-      <c r="Z10" s="65">
-        <f>'gas calculations'!Z5</f>
-        <v>0.14279588618846051</v>
-      </c>
-      <c r="AA10" s="65">
-        <f>'gas calculations'!AA5</f>
-        <v>0.13964285863184314</v>
-      </c>
-      <c r="AB10" s="65">
-        <f>'gas calculations'!AB5</f>
-        <v>0.13656597596929518</v>
-      </c>
-      <c r="AC10" s="65">
-        <f>'gas calculations'!AC5</f>
-        <v>0.1335631158609728</v>
-      </c>
-      <c r="AD10" s="65">
-        <f>'gas calculations'!AD5</f>
-        <v>0.13063222749804115</v>
-      </c>
-      <c r="AE10" s="65">
-        <f>'gas calculations'!AE5</f>
-        <v>0.12777132871434041</v>
-      </c>
-      <c r="AF10" s="65">
-        <f>'gas calculations'!AF5</f>
-        <v>0.12497850301710119</v>
-      </c>
-      <c r="AG10" s="65">
-        <f>'gas calculations'!AG5</f>
-        <v>0.12225189708405221</v>
-      </c>
-      <c r="AH10" s="65">
-        <f>'gas calculations'!AH5</f>
-        <v>0.11958971805738942</v>
-      </c>
-      <c r="AI10" s="65">
-        <f>'gas calculations'!AI5</f>
-        <v>0.11699023136195751</v>
-      </c>
-      <c r="AJ10" s="65">
-        <f>'gas calculations'!AJ5</f>
-        <v>0.11445078171267192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="65">
-        <f>'diesel calculations'!B5</f>
-        <v>0.25454031650339115</v>
-      </c>
-      <c r="C11" s="65">
-        <f>'diesel calculations'!C5</f>
-        <v>0.22026410172807306</v>
-      </c>
-      <c r="D11" s="65">
-        <f>'diesel calculations'!D5</f>
-        <v>0.27911167862630309</v>
-      </c>
-      <c r="E11" s="65">
-        <f>'diesel calculations'!E5</f>
-        <v>0.27001531621954511</v>
-      </c>
-      <c r="F11" s="65">
-        <f>'diesel calculations'!F5</f>
-        <v>0.25992650782452836</v>
-      </c>
-      <c r="G11" s="65">
-        <f>'diesel calculations'!G5</f>
-        <v>0.25029208510745804</v>
-      </c>
-      <c r="H11" s="65">
-        <f>'diesel calculations'!H5</f>
-        <v>0.23925009234772091</v>
-      </c>
-      <c r="I11" s="65">
-        <f>'diesel calculations'!I5</f>
-        <v>0.23184105387940951</v>
-      </c>
-      <c r="J11" s="65">
-        <f>'diesel calculations'!J5</f>
-        <v>0.23131340569141992</v>
-      </c>
-      <c r="K11" s="65">
-        <f>'diesel calculations'!K5</f>
-        <v>0.23055785986354246</v>
-      </c>
-      <c r="L11" s="65">
-        <f>'diesel calculations'!L5</f>
-        <v>0.22974958086394501</v>
-      </c>
-      <c r="M11" s="65">
-        <f>'diesel calculations'!M5</f>
-        <v>0.22892172321334953</v>
-      </c>
-      <c r="N11" s="65">
-        <f>'diesel calculations'!N5</f>
-        <v>0.22672089253225486</v>
-      </c>
-      <c r="O11" s="65">
-        <f>'diesel calculations'!O5</f>
-        <v>0.22557343318256282</v>
-      </c>
-      <c r="P11" s="65">
-        <f>'diesel calculations'!P5</f>
-        <v>0.2245614420064862</v>
-      </c>
-      <c r="Q11" s="65">
-        <f>'diesel calculations'!Q5</f>
-        <v>0.21250618470341284</v>
-      </c>
-      <c r="R11" s="65">
-        <f>'diesel calculations'!R5</f>
-        <v>0.21130708751026145</v>
-      </c>
-      <c r="S11" s="65">
-        <f>'diesel calculations'!S5</f>
-        <v>0.2099034087613372</v>
-      </c>
-      <c r="T11" s="65">
-        <f>'diesel calculations'!T5</f>
-        <v>0.20802935267936998</v>
-      </c>
-      <c r="U11" s="65">
-        <f>'diesel calculations'!U5</f>
-        <v>0.19855966171124378</v>
-      </c>
-      <c r="V11" s="65">
-        <f>'diesel calculations'!V5</f>
-        <v>0.19709190184014952</v>
-      </c>
-      <c r="W11" s="65">
-        <f>'diesel calculations'!W5</f>
-        <v>0.19581036496611171</v>
-      </c>
-      <c r="X11" s="65">
-        <f>'diesel calculations'!X5</f>
-        <v>0.19387911700174931</v>
-      </c>
-      <c r="Y11" s="65">
-        <f>'diesel calculations'!Y5</f>
-        <v>0.19181223509431092</v>
-      </c>
-      <c r="Z11" s="65">
-        <f>'diesel calculations'!Z5</f>
-        <v>0.18997444793698276</v>
-      </c>
-      <c r="AA11" s="65">
-        <f>'diesel calculations'!AA5</f>
-        <v>0.18768493498632516</v>
-      </c>
-      <c r="AB11" s="65">
-        <f>'diesel calculations'!AB5</f>
-        <v>0.18051697235557101</v>
-      </c>
-      <c r="AC11" s="65">
-        <f>'diesel calculations'!AC5</f>
-        <v>0.17741689804424035</v>
-      </c>
-      <c r="AD11" s="65">
-        <f>'diesel calculations'!AD5</f>
-        <v>0.17508057984834943</v>
-      </c>
-      <c r="AE11" s="65">
-        <f>'diesel calculations'!AE5</f>
-        <v>0.17280788310289474</v>
-      </c>
-      <c r="AF11" s="65">
-        <f>'diesel calculations'!AF5</f>
-        <v>0.17041412625938573</v>
-      </c>
-      <c r="AG11" s="65">
-        <f>'diesel calculations'!AG5</f>
-        <v>0.16791409899523724</v>
-      </c>
-      <c r="AH11" s="65">
-        <f>'diesel calculations'!AH5</f>
-        <v>0.16532136179634269</v>
-      </c>
-      <c r="AI11" s="65">
-        <f>'diesel calculations'!AI5</f>
-        <v>0.162648928508765</v>
-      </c>
-      <c r="AJ11" s="65">
-        <f>'diesel calculations'!AJ5</f>
-        <v>0.15990882405663343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="65">
-        <v>0.19861610352264558</v>
-      </c>
-      <c r="C12" s="65">
-        <v>0.21836038961038959</v>
-      </c>
-      <c r="D12" s="65">
-        <v>0.21689100149552315</v>
-      </c>
-      <c r="E12" s="65">
-        <v>0.21530233805822885</v>
-      </c>
-      <c r="F12" s="65">
-        <v>0.21170262136661136</v>
-      </c>
-      <c r="G12" s="65">
-        <v>0.20788081913341408</v>
-      </c>
-      <c r="H12" s="65">
-        <v>0.20491971139182596</v>
-      </c>
-      <c r="I12" s="65">
-        <v>0.20209087149576749</v>
-      </c>
-      <c r="J12" s="65">
-        <v>0.19940104563009312</v>
-      </c>
-      <c r="K12" s="65">
-        <v>0.19596039395205811</v>
-      </c>
-      <c r="L12" s="65">
-        <v>0.19273115706027849</v>
-      </c>
-      <c r="M12" s="65">
-        <v>0.18940075447800386</v>
-      </c>
-      <c r="N12" s="65">
-        <v>0.18539248524787638</v>
-      </c>
-      <c r="O12" s="65">
-        <v>0.1817968549585163</v>
-      </c>
-      <c r="P12" s="65">
-        <v>0.17835214010444056</v>
-      </c>
-      <c r="Q12" s="65">
-        <v>0.1749895339560027</v>
-      </c>
-      <c r="R12" s="65">
-        <v>0.17089313873424322</v>
-      </c>
-      <c r="S12" s="65">
-        <v>0.16692721634667651</v>
-      </c>
-      <c r="T12" s="65">
-        <v>0.16328191355428578</v>
-      </c>
-      <c r="U12" s="65">
-        <v>0.15967515110409194</v>
-      </c>
-      <c r="V12" s="65">
-        <v>0.15619328351364981</v>
-      </c>
-      <c r="W12" s="65">
-        <v>0.15324772345066542</v>
-      </c>
-      <c r="X12" s="65">
-        <v>0.14976701296334261</v>
-      </c>
-      <c r="Y12" s="65">
-        <v>0.1459984819528341</v>
-      </c>
-      <c r="Z12" s="65">
-        <v>0.14279588618846051</v>
-      </c>
-      <c r="AA12" s="65">
-        <v>0.13964285863184314</v>
-      </c>
-      <c r="AB12" s="65">
-        <v>0.13656597596929518</v>
-      </c>
-      <c r="AC12" s="65">
-        <v>0.1335631158609728</v>
-      </c>
-      <c r="AD12" s="65">
-        <v>0.13063222749804115</v>
-      </c>
-      <c r="AE12" s="65">
-        <v>0.12777132871434041</v>
-      </c>
-      <c r="AF12" s="65">
-        <v>0.12497850301710119</v>
-      </c>
-      <c r="AG12" s="65">
-        <v>0.12225189708405221</v>
-      </c>
-      <c r="AH12" s="65">
-        <v>0.11958971805738942</v>
-      </c>
-      <c r="AI12" s="65">
-        <v>0.11699023136195751</v>
-      </c>
-      <c r="AJ12" s="65">
-        <v>0.11445078171267192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="65">
-        <f>'biodiesel calculations'!B4</f>
-        <v>0.15573208884154094</v>
-      </c>
-      <c r="C13" s="65">
-        <f>'biodiesel calculations'!C4</f>
-        <v>0.14371119407952154</v>
-      </c>
-      <c r="D13" s="65">
-        <f>'biodiesel calculations'!D4</f>
-        <v>0.18526741915286263</v>
-      </c>
-      <c r="E13" s="65">
-        <f>'biodiesel calculations'!E4</f>
-        <v>0.18541040881955551</v>
-      </c>
-      <c r="F13" s="65">
-        <f>'biodiesel calculations'!F4</f>
-        <v>0.18470760330608979</v>
-      </c>
-      <c r="G13" s="65">
-        <f>'biodiesel calculations'!G4</f>
-        <v>0.18396694772957645</v>
-      </c>
-      <c r="H13" s="65">
-        <f>'biodiesel calculations'!H4</f>
-        <v>0.18370019423572889</v>
-      </c>
-      <c r="I13" s="65">
-        <f>'biodiesel calculations'!I4</f>
-        <v>0.186087087574315</v>
-      </c>
-      <c r="J13" s="65">
-        <f>'biodiesel calculations'!J4</f>
-        <v>0.18632777302025938</v>
-      </c>
-      <c r="K13" s="65">
-        <f>'biodiesel calculations'!K4</f>
-        <v>0.18657267020971721</v>
-      </c>
-      <c r="L13" s="65">
-        <f>'biodiesel calculations'!L4</f>
-        <v>0.1868322336412396</v>
-      </c>
-      <c r="M13" s="65">
-        <f>'biodiesel calculations'!M4</f>
-        <v>0.1871120747282827</v>
-      </c>
-      <c r="N13" s="65">
-        <f>'biodiesel calculations'!N4</f>
-        <v>0.18741839962594295</v>
-      </c>
-      <c r="O13" s="65">
-        <f>'biodiesel calculations'!O4</f>
-        <v>0.1877586958635275</v>
-      </c>
-      <c r="P13" s="65">
-        <f>'biodiesel calculations'!P4</f>
-        <v>0.1881494199443024</v>
-      </c>
-      <c r="Q13" s="65">
-        <f>'biodiesel calculations'!Q4</f>
-        <v>0.17289255633515552</v>
-      </c>
-      <c r="R13" s="65">
-        <f>'biodiesel calculations'!R4</f>
-        <v>0.17331149858576453</v>
-      </c>
-      <c r="S13" s="65">
-        <f>'biodiesel calculations'!S4</f>
-        <v>0.17375573186165452</v>
-      </c>
-      <c r="T13" s="65">
-        <f>'biodiesel calculations'!T4</f>
-        <v>0.17426806378872448</v>
-      </c>
-      <c r="U13" s="65">
-        <f>'biodiesel calculations'!U4</f>
-        <v>0.16133549585268561</v>
-      </c>
-      <c r="V13" s="65">
-        <f>'biodiesel calculations'!V4</f>
-        <v>0.16215267681394374</v>
-      </c>
-      <c r="W13" s="65">
-        <f>'biodiesel calculations'!W4</f>
-        <v>0.16264082588305054</v>
-      </c>
-      <c r="X13" s="65">
-        <f>'biodiesel calculations'!X4</f>
-        <v>0.16362503787778637</v>
-      </c>
-      <c r="Y13" s="65">
-        <f>'biodiesel calculations'!Y4</f>
-        <v>0.16466005819643348</v>
-      </c>
-      <c r="Z13" s="65">
-        <f>'biodiesel calculations'!Z4</f>
-        <v>0.16639201768326253</v>
-      </c>
-      <c r="AA13" s="65">
-        <f>'biodiesel calculations'!AA4</f>
-        <v>0.16718727814229464</v>
-      </c>
-      <c r="AB13" s="65">
-        <f>'biodiesel calculations'!AB4</f>
-        <v>0.1460545168150891</v>
-      </c>
-      <c r="AC13" s="65">
-        <f>'biodiesel calculations'!AC4</f>
-        <v>0.14579057361910355</v>
-      </c>
-      <c r="AD13" s="65">
-        <f>'biodiesel calculations'!AD4</f>
-        <v>0.14567140505796089</v>
-      </c>
-      <c r="AE13" s="65">
-        <f>'biodiesel calculations'!AE4</f>
-        <v>0.14558395876655908</v>
-      </c>
-      <c r="AF13" s="65">
-        <f>'biodiesel calculations'!AF4</f>
-        <v>0.1454948850176043</v>
-      </c>
-      <c r="AG13" s="65">
-        <f>'biodiesel calculations'!AG4</f>
-        <v>0.14540415866153059</v>
-      </c>
-      <c r="AH13" s="65">
-        <f>'biodiesel calculations'!AH4</f>
-        <v>0.14531121665812868</v>
-      </c>
-      <c r="AI13" s="65">
-        <f>'biodiesel calculations'!AI4</f>
-        <v>0.14521706490738934</v>
-      </c>
-      <c r="AJ13" s="65">
-        <f>'biodiesel calculations'!AJ4</f>
-        <v>0.14494618012031193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="65">
-        <f>SUM('AEO Table 59'!E33:E34)/('AEO Table 59'!E32-SUM('AEO Table 59'!E33:E34))</f>
-        <v>7.9100593914764455E-2</v>
-      </c>
-      <c r="C14" s="65">
-        <f>SUM('AEO Table 59'!F33:F34)/('AEO Table 59'!F32-SUM('AEO Table 59'!F33:F34))</f>
-        <v>6.1016347719941945E-2</v>
-      </c>
-      <c r="D14" s="65">
-        <f>SUM('AEO Table 59'!G33:G34)/('AEO Table 59'!G32-SUM('AEO Table 59'!G33:G34))</f>
-        <v>5.2898851339937797E-2</v>
-      </c>
-      <c r="E14" s="65">
-        <f>SUM('AEO Table 59'!H33:H34)/('AEO Table 59'!H32-SUM('AEO Table 59'!H33:H34))</f>
-        <v>4.3467152777098145E-2</v>
-      </c>
-      <c r="F14" s="65">
-        <f>SUM('AEO Table 59'!I33:I34)/('AEO Table 59'!I32-SUM('AEO Table 59'!I33:I34))</f>
-        <v>3.977281112199145E-2</v>
-      </c>
-      <c r="G14" s="65">
-        <f>SUM('AEO Table 59'!J33:J34)/('AEO Table 59'!J32-SUM('AEO Table 59'!J33:J34))</f>
-        <v>3.7201766655127248E-2</v>
-      </c>
-      <c r="H14" s="65">
-        <f>SUM('AEO Table 59'!K33:K34)/('AEO Table 59'!K32-SUM('AEO Table 59'!K33:K34))</f>
-        <v>3.5395028859064176E-2</v>
-      </c>
-      <c r="I14" s="65">
-        <f>SUM('AEO Table 59'!L33:L34)/('AEO Table 59'!L32-SUM('AEO Table 59'!L33:L34))</f>
-        <v>3.4250055863373187E-2</v>
-      </c>
-      <c r="J14" s="65">
-        <f>SUM('AEO Table 59'!M33:M34)/('AEO Table 59'!M32-SUM('AEO Table 59'!M33:M34))</f>
-        <v>3.3247502385571136E-2</v>
-      </c>
-      <c r="K14" s="65">
-        <f>SUM('AEO Table 59'!N33:N34)/('AEO Table 59'!N32-SUM('AEO Table 59'!N33:N34))</f>
-        <v>3.2128028671409244E-2</v>
-      </c>
-      <c r="L14" s="65">
-        <f>SUM('AEO Table 59'!O33:O34)/('AEO Table 59'!O32-SUM('AEO Table 59'!O33:O34))</f>
-        <v>3.0853106438632656E-2</v>
-      </c>
-      <c r="M14" s="65">
-        <f>SUM('AEO Table 59'!P33:P34)/('AEO Table 59'!P32-SUM('AEO Table 59'!P33:P34))</f>
-        <v>2.9862625979502049E-2</v>
-      </c>
-      <c r="N14" s="65">
-        <f>SUM('AEO Table 59'!Q33:Q34)/('AEO Table 59'!Q32-SUM('AEO Table 59'!Q33:Q34))</f>
-        <v>2.9024651805334232E-2</v>
-      </c>
-      <c r="O14" s="65">
-        <f>SUM('AEO Table 59'!R33:R34)/('AEO Table 59'!R32-SUM('AEO Table 59'!R33:R34))</f>
-        <v>2.8082735428540825E-2</v>
-      </c>
-      <c r="P14" s="65">
-        <f>SUM('AEO Table 59'!S33:S34)/('AEO Table 59'!S32-SUM('AEO Table 59'!S33:S34))</f>
-        <v>2.7316418727623481E-2</v>
-      </c>
-      <c r="Q14" s="65">
-        <f>SUM('AEO Table 59'!T33:T34)/('AEO Table 59'!T32-SUM('AEO Table 59'!T33:T34))</f>
-        <v>2.6267361628746301E-2</v>
-      </c>
-      <c r="R14" s="65">
-        <f>SUM('AEO Table 59'!U33:U34)/('AEO Table 59'!U32-SUM('AEO Table 59'!U33:U34))</f>
-        <v>2.5240616478271419E-2</v>
-      </c>
-      <c r="S14" s="65">
-        <f>SUM('AEO Table 59'!V33:V34)/('AEO Table 59'!V32-SUM('AEO Table 59'!V33:V34))</f>
-        <v>2.4328408684329617E-2</v>
-      </c>
-      <c r="T14" s="65">
-        <f>SUM('AEO Table 59'!W33:W34)/('AEO Table 59'!W32-SUM('AEO Table 59'!W33:W34))</f>
-        <v>2.3323818759857031E-2</v>
-      </c>
-      <c r="U14" s="65">
-        <f>SUM('AEO Table 59'!X33:X34)/('AEO Table 59'!X32-SUM('AEO Table 59'!X33:X34))</f>
-        <v>2.2646446120721003E-2</v>
-      </c>
-      <c r="V14" s="65">
-        <f>SUM('AEO Table 59'!Y33:Y34)/('AEO Table 59'!Y32-SUM('AEO Table 59'!Y33:Y34))</f>
-        <v>2.1859605911330047E-2</v>
-      </c>
-      <c r="W14" s="65">
-        <f>SUM('AEO Table 59'!Z33:Z34)/('AEO Table 59'!Z32-SUM('AEO Table 59'!Z33:Z34))</f>
-        <v>2.1279458412027587E-2</v>
-      </c>
-      <c r="X14" s="65">
-        <f>SUM('AEO Table 59'!AA33:AA34)/('AEO Table 59'!AA32-SUM('AEO Table 59'!AA33:AA34))</f>
-        <v>2.0518184697868359E-2</v>
-      </c>
-      <c r="Y14" s="65">
-        <f>SUM('AEO Table 59'!AB33:AB34)/('AEO Table 59'!AB32-SUM('AEO Table 59'!AB33:AB34))</f>
-        <v>1.9845398450509935E-2</v>
-      </c>
-      <c r="Z14" s="65">
-        <f>SUM('AEO Table 59'!AC33:AC34)/('AEO Table 59'!AC32-SUM('AEO Table 59'!AC33:AC34))</f>
-        <v>1.9158580462276489E-2</v>
-      </c>
-      <c r="AA14" s="65">
-        <f t="shared" ref="AA14:AJ17" si="3">TREND($Q14:$Z14,$Q$1:$Z$1,AA$1)</f>
-        <v>1.8189568031335757E-2</v>
-      </c>
-      <c r="AB14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.7415528044197881E-2</v>
-      </c>
-      <c r="AC14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.6641488057060005E-2</v>
-      </c>
-      <c r="AD14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.586744806992213E-2</v>
-      </c>
-      <c r="AE14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.5093408082784476E-2</v>
-      </c>
-      <c r="AF14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.4319368095646601E-2</v>
-      </c>
-      <c r="AG14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.3545328108508725E-2</v>
-      </c>
-      <c r="AH14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.277128812137085E-2</v>
-      </c>
-      <c r="AI14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.1997248134232974E-2</v>
-      </c>
-      <c r="AJ14" s="65">
-        <f t="shared" si="3"/>
-        <v>1.1223208147095098E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z15" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ15" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="65">
-        <v>0</v>
-      </c>
-      <c r="C16" s="65">
-        <v>0</v>
-      </c>
-      <c r="D16" s="65">
-        <v>0</v>
-      </c>
-      <c r="E16" s="65">
-        <v>0</v>
-      </c>
-      <c r="F16" s="65">
-        <v>0</v>
-      </c>
-      <c r="G16" s="65">
-        <v>0</v>
-      </c>
-      <c r="H16" s="65">
-        <v>0</v>
-      </c>
-      <c r="I16" s="65">
-        <v>0</v>
-      </c>
-      <c r="J16" s="65">
-        <v>0</v>
-      </c>
-      <c r="K16" s="65">
-        <v>0</v>
-      </c>
-      <c r="L16" s="65">
-        <v>0</v>
-      </c>
-      <c r="M16" s="65">
-        <v>0</v>
-      </c>
-      <c r="N16" s="65">
-        <v>0</v>
-      </c>
-      <c r="O16" s="65">
-        <v>0</v>
-      </c>
-      <c r="P16" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="65">
-        <v>0</v>
-      </c>
-      <c r="R16" s="65">
-        <v>0</v>
-      </c>
-      <c r="S16" s="65">
-        <v>0</v>
-      </c>
-      <c r="T16" s="65">
-        <v>0</v>
-      </c>
-      <c r="U16" s="65">
-        <v>0</v>
-      </c>
-      <c r="V16" s="65">
-        <v>0</v>
-      </c>
-      <c r="W16" s="65">
-        <v>0</v>
-      </c>
-      <c r="X16" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="N17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="O17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="P17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="S17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="T17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="U17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="W17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="X17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Y17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Z17" s="65">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AA17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AB17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AC17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AD17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AE17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AF17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AG17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AH17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AI17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-      <c r="AJ17" s="65">
-        <f t="shared" si="3"/>
-        <v>6.8000000000000019E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4975,7 +1702,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="16">
         <v>2014</v>
@@ -5062,10 +1789,10 @@
     <row r="2" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -5073,23 +1800,23 @@
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -5097,18 +1824,18 @@
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>47</v>
@@ -5116,7 +1843,7 @@
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5205,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5305,7 +2032,7 @@
     </row>
     <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>6</v>
@@ -5397,7 +2124,7 @@
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>7</v>
@@ -5489,7 +2216,7 @@
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>8</v>
@@ -5581,7 +2308,7 @@
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
@@ -5673,7 +2400,7 @@
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>11</v>
@@ -5765,7 +2492,7 @@
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>12</v>
@@ -5862,7 +2589,7 @@
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>6</v>
@@ -5954,7 +2681,7 @@
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>7</v>
@@ -6046,7 +2773,7 @@
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>14</v>
@@ -6138,7 +2865,7 @@
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>9</v>
@@ -6230,7 +2957,7 @@
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>11</v>
@@ -6322,7 +3049,7 @@
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>12</v>
@@ -6419,7 +3146,7 @@
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>6</v>
@@ -6511,7 +3238,7 @@
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>7</v>
@@ -6603,7 +3330,7 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>8</v>
@@ -6695,7 +3422,7 @@
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>9</v>
@@ -6787,7 +3514,7 @@
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>11</v>
@@ -6879,7 +3606,7 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>12</v>
@@ -6976,7 +3703,7 @@
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
@@ -7068,7 +3795,7 @@
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>9</v>
@@ -7160,7 +3887,7 @@
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>11</v>
@@ -7252,7 +3979,7 @@
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>12</v>
@@ -7344,7 +4071,7 @@
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>48</v>
@@ -7436,7 +4163,7 @@
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>17</v>
@@ -7528,37 +4255,37 @@
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
     </row>
     <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
@@ -7567,37 +4294,37 @@
     </row>
     <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7611,59 +4338,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -7674,35 +4351,35 @@
   <sheetData>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>2697</v>
@@ -7722,7 +4399,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>3994</v>
@@ -7742,7 +4419,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>625</v>
@@ -7762,7 +4439,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <f>B29/(B27+B28+B29)</f>
@@ -7795,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A10"/>
   <sheetViews>
@@ -7807,12 +4484,12 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -7820,17 +4497,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7843,12 +4520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,53 +4537,53 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
-      <c r="B4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="37"/>
-      <c r="G4" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="G4" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="36"/>
       <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="38" t="s">
@@ -7915,7 +4592,7 @@
     </row>
     <row r="6" spans="1:12" ht="25.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" s="45">
         <v>0.24182352941176477</v>
@@ -7947,7 +4624,7 @@
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="42">
         <v>0.41699999999999998</v>
@@ -7976,42 +4653,42 @@
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="48" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8024,12 +4701,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +4860,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B2" s="34">
         <v>2.782</v>
@@ -8192,1014 +4869,411 @@
         <v>3.08</v>
       </c>
       <c r="D2" s="28">
-        <f>C2*(D3/C3)</f>
-        <v>3.1008663123992357</v>
+        <v>3.5510000000000002</v>
       </c>
       <c r="E2" s="28">
-        <f t="shared" ref="E2:AJ2" si="1">D2*(E3/D3)</f>
-        <v>3.1237468485739703</v>
+        <v>3.5769278233438859</v>
       </c>
       <c r="F2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.1768619380263901</v>
+        <v>3.6848694450138093</v>
       </c>
       <c r="G2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.2352672209183946</v>
+        <v>3.7131637171964895</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.2820171150544932</v>
+        <v>3.7239940726318208</v>
       </c>
       <c r="I2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.3279583339027048</v>
+        <v>3.7764927776749988</v>
       </c>
       <c r="J2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.3728509189848519</v>
+        <v>3.8293083584756658</v>
       </c>
       <c r="K2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.4320710753650556</v>
+        <v>3.8723007907941764</v>
       </c>
       <c r="L2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.4895758955551419</v>
+        <v>3.904228719390356</v>
       </c>
       <c r="M2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.5509362243755311</v>
+        <v>3.9849408896048639</v>
       </c>
       <c r="N2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.6277090686862339</v>
+        <v>4.0134518782146928</v>
       </c>
       <c r="O2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.6994589381288647</v>
+        <v>4.111741567720844</v>
       </c>
       <c r="P2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.7709107365135286</v>
+        <v>4.1288494608898496</v>
       </c>
       <c r="Q2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8433727137595439</v>
+        <v>4.1738218865778824</v>
       </c>
       <c r="R2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.9355003072761505</v>
+        <v>4.208935856881177</v>
       </c>
       <c r="S2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.0290014697378034</v>
+        <v>4.2261440571081481</v>
       </c>
       <c r="T2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.1189497682877141</v>
+        <v>4.2570857560740247</v>
       </c>
       <c r="U2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.2119891251054202</v>
+        <v>4.284497355692138</v>
       </c>
       <c r="V2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.3058829731383774</v>
+        <v>4.320166338685822</v>
       </c>
       <c r="W2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.3886459443328176</v>
+        <v>4.3199209630992534</v>
       </c>
       <c r="X2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.4906417420811833</v>
+        <v>4.3448365567506846</v>
       </c>
       <c r="Y2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.6065547463518985</v>
+        <v>4.3725811344375058</v>
       </c>
       <c r="Z2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.7098695764412675</v>
+        <v>4.4033715603144934</v>
       </c>
       <c r="AA2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.816214782405182</v>
+        <v>4.4186811650937967</v>
       </c>
       <c r="AB2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.9247259079465939</v>
+        <v>4.453410304931702</v>
       </c>
       <c r="AC2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.0354470668389029</v>
+        <v>4.4604569126856513</v>
       </c>
       <c r="AD2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.1484232710499018</v>
+        <v>4.4605714015957005</v>
       </c>
       <c r="AE2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.2637004464720443</v>
+        <v>4.4703317658368613</v>
       </c>
       <c r="AF2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.3813254580907639</v>
+        <v>4.4844125722241861</v>
       </c>
       <c r="AG2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.5013461225685498</v>
+        <v>4.4955974739616025</v>
       </c>
       <c r="AH2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.6238112349863778</v>
+        <v>4.5172149006378834</v>
       </c>
       <c r="AI2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.7487705782817828</v>
+        <v>4.5196231563947986</v>
       </c>
       <c r="AJ2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.8763250887043581</v>
+        <v>4.5184411876602217</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>161</v>
+      <c r="A3" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="28">
-        <v>17.928214248649098</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="C3" s="28">
-        <v>18.885450227945402</v>
-      </c>
-      <c r="D3" s="61">
-        <v>19.0133949371196</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
+      </c>
+      <c r="D3" s="28">
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="E3" s="28">
-        <v>19.153690140728902</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="F3" s="28">
-        <v>19.479372731055701</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="G3" s="28">
-        <v>19.8374928814148</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="H3" s="28">
-        <v>20.124146387541099</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="I3" s="28">
-        <v>20.405841388180399</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="J3" s="28">
-        <v>20.681106544405299</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="K3" s="28">
-        <v>21.044223205382401</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="L3" s="28">
-        <v>21.396822042904098</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="M3" s="28">
-        <v>21.773061470146899</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="N3" s="28">
-        <v>22.243804889006501</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="O3" s="28">
-        <v>22.6837492358313</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="P3" s="28">
-        <v>23.1218659183283</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="Q3" s="28">
-        <v>23.566176653619902</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="R3" s="28">
-        <v>24.1310698620544</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="S3" s="28">
-        <v>24.704385300341599</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="T3" s="28">
-        <v>25.255915857274299</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="U3" s="28">
-        <v>25.8263996697486</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="V3" s="28">
-        <v>26.402122914468301</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="W3" s="28">
-        <v>26.909595633042802</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="X3" s="28">
-        <v>27.5349971141585</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="Y3" s="28">
-        <v>28.245733891082601</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="Z3" s="28">
-        <v>28.879223203245399</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AA3" s="28">
-        <v>29.531293688379201</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AB3" s="28">
-        <v>30.1966448119476</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AC3" s="28">
-        <v>30.875547063714201</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AD3" s="28">
-        <v>31.568276440847001</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AE3" s="28">
-        <v>32.275114544370702</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AF3" s="28">
-        <v>32.996348733489803</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AG3" s="28">
-        <v>33.732272202749598</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AH3" s="28">
-        <v>34.483184146005001</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AI3" s="28">
-        <v>35.249389814291398</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
       <c r="AJ3" s="28">
-        <v>36.031508112322399</v>
+        <f>'gasoline-diesel tax details'!$E$7</f>
+        <v>0.67254999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B4" s="28">
-        <f>C4-0.12</f>
-        <v>0.55254999999999999</v>
+        <f>B3/B2</f>
+        <v>0.2417505391804457</v>
       </c>
       <c r="C4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" ref="C4:AJ4" si="1">C3/C2</f>
+        <v>0.21836038961038959</v>
       </c>
       <c r="D4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.18939735285834974</v>
       </c>
       <c r="E4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.18802448168251479</v>
       </c>
       <c r="F4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.18251664272938156</v>
       </c>
       <c r="G4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.18112586764899993</v>
       </c>
       <c r="H4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.18059910592840861</v>
       </c>
       <c r="I4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.17808851746674226</v>
       </c>
       <c r="J4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.17563223878573264</v>
       </c>
       <c r="K4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.17368227220335991</v>
       </c>
       <c r="L4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.17226193656631328</v>
       </c>
       <c r="M4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.16877289240460686</v>
       </c>
       <c r="N4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.16757395389506227</v>
       </c>
       <c r="O4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.16356815936094868</v>
       </c>
       <c r="P4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.16289041447760899</v>
       </c>
       <c r="Q4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.16113528997554419</v>
       </c>
       <c r="R4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15979098348587326</v>
       </c>
       <c r="S4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15914033949429784</v>
       </c>
       <c r="T4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15798366265946212</v>
       </c>
       <c r="U4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15697290584308299</v>
       </c>
       <c r="V4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15567687613727094</v>
       </c>
       <c r="W4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15568571873071735</v>
       </c>
       <c r="X4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15479293437518191</v>
       </c>
       <c r="Y4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15381075372235892</v>
       </c>
       <c r="Z4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15273523725805363</v>
       </c>
       <c r="AA4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15220604856329875</v>
       </c>
       <c r="AB4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15101909636648991</v>
       </c>
       <c r="AC4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15078051714550833</v>
       </c>
       <c r="AD4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15077664708144917</v>
       </c>
       <c r="AE4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.15044744668388083</v>
       </c>
       <c r="AF4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.14997505005798956</v>
       </c>
       <c r="AG4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.14960191696329447</v>
       </c>
       <c r="AH4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.14888598722744584</v>
       </c>
       <c r="AI4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.14880665416726424</v>
       </c>
       <c r="AJ4" s="28">
-        <f>'gasoline-diesel tax details'!$E$7</f>
-        <v>0.67254999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="28">
-        <f>B4/B2</f>
-        <v>0.19861610352264558</v>
-      </c>
-      <c r="C5" s="28">
-        <f t="shared" ref="C5:AJ5" si="2">C4/C2</f>
-        <v>0.21836038961038959</v>
-      </c>
-      <c r="D5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21689100149552315</v>
-      </c>
-      <c r="E5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21530233805822885</v>
-      </c>
-      <c r="F5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21170262136661136</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.20788081913341408</v>
-      </c>
-      <c r="H5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.20491971139182596</v>
-      </c>
-      <c r="I5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.20209087149576749</v>
-      </c>
-      <c r="J5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19940104563009312</v>
-      </c>
-      <c r="K5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19596039395205811</v>
-      </c>
-      <c r="L5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19273115706027849</v>
-      </c>
-      <c r="M5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.18940075447800386</v>
-      </c>
-      <c r="N5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.18539248524787638</v>
-      </c>
-      <c r="O5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1817968549585163</v>
-      </c>
-      <c r="P5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17835214010444056</v>
-      </c>
-      <c r="Q5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1749895339560027</v>
-      </c>
-      <c r="R5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17089313873424322</v>
-      </c>
-      <c r="S5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.16692721634667651</v>
-      </c>
-      <c r="T5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.16328191355428578</v>
-      </c>
-      <c r="U5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.15967515110409194</v>
-      </c>
-      <c r="V5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.15619328351364981</v>
-      </c>
-      <c r="W5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.15324772345066542</v>
-      </c>
-      <c r="X5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.14976701296334261</v>
-      </c>
-      <c r="Y5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1459984819528341</v>
-      </c>
-      <c r="Z5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.14279588618846051</v>
-      </c>
-      <c r="AA5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.13964285863184314</v>
-      </c>
-      <c r="AB5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.13656597596929518</v>
-      </c>
-      <c r="AC5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1335631158609728</v>
-      </c>
-      <c r="AD5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.13063222749804115</v>
-      </c>
-      <c r="AE5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.12777132871434041</v>
-      </c>
-      <c r="AF5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.12497850301710119</v>
-      </c>
-      <c r="AG5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.12225189708405221</v>
-      </c>
-      <c r="AH5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.11958971805738942</v>
-      </c>
-      <c r="AI5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.11699023136195751</v>
-      </c>
-      <c r="AJ5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.11445078171267192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
-        <v>2.0195345680000001E-5</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1.6307440179999999E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="28" t="s">
+        <f t="shared" si="1"/>
+        <v>0.14884558016085755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>34150</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>34515</v>
-      </c>
-      <c r="B22" s="34">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>34880</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="L23" s="58">
-        <v>34880</v>
-      </c>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>35246</v>
-      </c>
-      <c r="B24" s="34">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="L24" s="58">
-        <v>35246</v>
-      </c>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>35611</v>
-      </c>
-      <c r="B25" s="34">
-        <v>1.244</v>
-      </c>
-      <c r="L25" s="58">
-        <v>35611</v>
-      </c>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
-        <v>35976</v>
-      </c>
-      <c r="B26" s="34">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="L26" s="58">
-        <v>35976</v>
-      </c>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
-        <v>36341</v>
-      </c>
-      <c r="B27" s="34">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="L27" s="58">
-        <v>36341</v>
-      </c>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="58">
-        <v>36707</v>
-      </c>
-      <c r="B28" s="34">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="L28" s="58">
-        <v>36707</v>
-      </c>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="58">
-        <v>37072</v>
-      </c>
-      <c r="B29" s="34">
-        <v>1.46</v>
-      </c>
-      <c r="L29" s="58">
-        <v>37072</v>
-      </c>
-      <c r="M29" s="34">
-        <v>1.677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
-        <v>37437</v>
-      </c>
-      <c r="B30" s="34">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="L30" s="58">
-        <v>37437</v>
-      </c>
-      <c r="M30" s="34">
-        <v>1.5609999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
-        <v>37802</v>
-      </c>
-      <c r="B31" s="34">
-        <v>1.603</v>
-      </c>
-      <c r="L31" s="58">
-        <v>37802</v>
-      </c>
-      <c r="M31" s="34">
-        <v>1.8779999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="58">
-        <v>38168</v>
-      </c>
-      <c r="B32" s="34">
-        <v>1.895</v>
-      </c>
-      <c r="L32" s="58">
-        <v>38168</v>
-      </c>
-      <c r="M32" s="34">
-        <v>2.1659999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>38533</v>
-      </c>
-      <c r="B33" s="34">
-        <v>2.3140000000000001</v>
-      </c>
-      <c r="L33" s="58">
-        <v>38533</v>
-      </c>
-      <c r="M33" s="34">
-        <v>2.5169999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
-        <v>38898</v>
-      </c>
-      <c r="B34" s="34">
-        <v>2.6179999999999999</v>
-      </c>
-      <c r="L34" s="58">
-        <v>38898</v>
-      </c>
-      <c r="M34" s="34">
-        <v>2.855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
-        <v>39263</v>
-      </c>
-      <c r="B35" s="34">
-        <v>2.843</v>
-      </c>
-      <c r="L35" s="58">
-        <v>39263</v>
-      </c>
-      <c r="M35" s="34">
-        <v>3.1240000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <v>39629</v>
-      </c>
-      <c r="B36" s="34">
-        <v>3.2989999999999999</v>
-      </c>
-      <c r="L36" s="58">
-        <v>39629</v>
-      </c>
-      <c r="M36" s="34">
-        <v>3.5609999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
-        <v>39994</v>
-      </c>
-      <c r="B37" s="34">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="L37" s="58">
-        <v>39994</v>
-      </c>
-      <c r="M37" s="34">
-        <v>2.7250000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
-        <v>40359</v>
-      </c>
-      <c r="B38" s="34">
-        <v>2.835</v>
-      </c>
-      <c r="L38" s="58">
-        <v>40359</v>
-      </c>
-      <c r="M38" s="34">
-        <v>3.1379999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
-        <v>40724</v>
-      </c>
-      <c r="B39" s="34">
-        <v>3.5760000000000001</v>
-      </c>
-      <c r="L39" s="58">
-        <v>40724</v>
-      </c>
-      <c r="M39" s="34">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="58">
-        <v>41090</v>
-      </c>
-      <c r="B40" s="34">
-        <v>3.68</v>
-      </c>
-      <c r="L40" s="58">
-        <v>41090</v>
-      </c>
-      <c r="M40" s="34">
-        <v>4.0810000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="58">
-        <v>41455</v>
-      </c>
-      <c r="B41" s="34">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="L41" s="58">
-        <v>41455</v>
-      </c>
-      <c r="M41" s="34">
-        <v>3.9329999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
-        <v>41820</v>
-      </c>
-      <c r="B42" s="34">
-        <v>3.4369999999999998</v>
-      </c>
-      <c r="L42" s="58">
-        <v>41820</v>
-      </c>
-      <c r="M42" s="34">
-        <v>3.794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
-        <v>42185</v>
-      </c>
-      <c r="B43" s="34">
-        <v>2.52</v>
-      </c>
-      <c r="L43" s="58">
-        <v>42185</v>
-      </c>
-      <c r="M43" s="34">
-        <v>3.2210000000000001</v>
-      </c>
-      <c r="O43" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <v>42551</v>
-      </c>
-      <c r="B44" s="34">
-        <v>2.25</v>
-      </c>
-      <c r="L44" s="58">
-        <v>42551</v>
-      </c>
-      <c r="M44" s="34">
-        <v>2.782</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="O44" s="28">
-        <f>M44/117743</f>
-        <v>2.3627731584892519E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
-        <v>42916</v>
-      </c>
-      <c r="B45" s="34">
-        <v>2.528</v>
-      </c>
-      <c r="L45" s="58">
-        <v>42916</v>
-      </c>
-      <c r="M45" s="34">
-        <v>3.08</v>
-      </c>
-      <c r="O45" s="28">
-        <f>M45/117743</f>
-        <v>2.6158667606566847E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="59">
-        <v>117743.1978516668</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="60">
-        <v>133075</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A18" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="L18" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="A16" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9350,7 +5424,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B2" s="28">
         <v>2.6539999999999999</v>
@@ -9359,251 +5433,145 @@
         <v>3.0670000000000002</v>
       </c>
       <c r="D2">
-        <f>C2*(D3/C3)</f>
-        <v>3.1369163924246108</v>
+        <v>3.8740000000000001</v>
       </c>
       <c r="E2" s="28">
-        <f t="shared" ref="E2:AJ2" si="1">D2*(E3/D3)</f>
-        <v>3.2425938360033788</v>
+        <v>3.8358313975974778</v>
       </c>
       <c r="F2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.3684521341358065</v>
+        <v>4.0172129130875378</v>
       </c>
       <c r="G2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.498113013138628</v>
+        <v>3.994756350385916</v>
       </c>
       <c r="H2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.6595597159791047</v>
+        <v>3.9561786049283238</v>
       </c>
       <c r="I2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.7765097481631154</v>
+        <v>3.9799971188405219</v>
       </c>
       <c r="J2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.7851243311337259</v>
+        <v>4.0515988434530463</v>
       </c>
       <c r="K2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.7975283103260997</v>
+        <v>4.1217216705542503</v>
       </c>
       <c r="L2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8108883450738062</v>
+        <v>4.1623774098181725</v>
       </c>
       <c r="M2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8246697941549592</v>
+        <v>4.280106676188228</v>
       </c>
       <c r="N2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8617967238084967</v>
+        <v>4.3187826092191344</v>
       </c>
       <c r="O2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8814411238374569</v>
+        <v>4.4442832276698789</v>
       </c>
       <c r="P2" s="28">
-        <f t="shared" si="1"/>
-        <v>3.8989329253359122</v>
+        <v>4.4782757317519515</v>
       </c>
       <c r="Q2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.1201153802745711</v>
+        <v>4.5231927440987176</v>
       </c>
       <c r="R2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.1434956598769164</v>
+        <v>4.5758552519018769</v>
       </c>
       <c r="S2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.1712042942356948</v>
+        <v>4.6215701016559043</v>
       </c>
       <c r="T2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.208781062494876</v>
+        <v>4.6366609063834741</v>
       </c>
       <c r="U2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.4095059009179431</v>
+        <v>4.6791440160953357</v>
       </c>
       <c r="V2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.4423438600237919</v>
+        <v>4.7352236542469033</v>
       </c>
       <c r="W2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.4714180485365462</v>
+        <v>4.7240155681026517</v>
       </c>
       <c r="X2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.5159582606934414</v>
+        <v>4.7526679187782266</v>
       </c>
       <c r="Y2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.564620184783867</v>
+        <v>4.7790692221619722</v>
       </c>
       <c r="Z2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.608777704096461</v>
+        <v>4.8018967344736234</v>
       </c>
       <c r="AA2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.6649988187053646</v>
+        <v>4.8057274018132548</v>
       </c>
       <c r="AB2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.8502364546387167</v>
+        <v>4.8342050090278885</v>
       </c>
       <c r="AC2" s="28">
-        <f t="shared" si="1"/>
-        <v>4.9349865184863875</v>
+        <v>4.8339528646915975</v>
       </c>
       <c r="AD2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.0008401888911971</v>
+        <v>4.814010478458485</v>
       </c>
       <c r="AE2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.0666091400394775</v>
+        <v>4.8208614699121988</v>
       </c>
       <c r="AF2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.1377783005343911</v>
+        <v>4.7988603555928195</v>
       </c>
       <c r="AG2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.2142732816309509</v>
+        <v>4.7739840860500244</v>
       </c>
       <c r="AH2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.2960488014765996</v>
+        <v>4.779687753174592</v>
       </c>
       <c r="AI2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.3830665103509583</v>
+        <v>4.769093466111717</v>
       </c>
       <c r="AJ2" s="28">
-        <f t="shared" si="1"/>
-        <v>5.4753076020990221</v>
+        <v>4.7651774550121466</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="28">
-        <v>19.123924713899399</v>
-      </c>
-      <c r="C3" s="28">
-        <v>22.019310596993201</v>
-      </c>
-      <c r="D3" s="28">
-        <v>22.5212704146061</v>
-      </c>
-      <c r="E3" s="28">
-        <v>23.279974181563102</v>
-      </c>
-      <c r="F3" s="28">
-        <v>24.183564973146702</v>
-      </c>
-      <c r="G3" s="28">
-        <v>25.114456126404701</v>
-      </c>
-      <c r="H3" s="28">
-        <v>26.273551364326099</v>
-      </c>
-      <c r="I3" s="28">
-        <v>27.113185887634899</v>
-      </c>
-      <c r="J3" s="28">
-        <v>27.1750336796445</v>
-      </c>
-      <c r="K3" s="28">
-        <v>27.264087175071801</v>
-      </c>
-      <c r="L3" s="28">
-        <v>27.360004604056599</v>
-      </c>
-      <c r="M3" s="28">
-        <v>27.458947547582699</v>
-      </c>
-      <c r="N3" s="28">
-        <v>27.725497725461398</v>
-      </c>
-      <c r="O3" s="28">
-        <v>27.866533312591901</v>
-      </c>
-      <c r="P3" s="28">
-        <v>27.9921144701059</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>29.580078335087901</v>
-      </c>
-      <c r="R3" s="28">
-        <v>29.7479354066264</v>
-      </c>
-      <c r="S3" s="28">
-        <v>29.946867596442001</v>
-      </c>
-      <c r="T3" s="28">
-        <v>30.2166473589233</v>
-      </c>
-      <c r="U3" s="28">
-        <v>31.657737206255799</v>
-      </c>
-      <c r="V3" s="28">
-        <v>31.893495022011599</v>
-      </c>
-      <c r="W3" s="28">
-        <v>32.102231111746804</v>
-      </c>
-      <c r="X3" s="28">
-        <v>32.422004429496603</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>32.7713692879232</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>33.088395089337197</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>33.4920306239582</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>34.821931191245199</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>35.430388308616202</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>35.903180099485297</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>36.375363654415999</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>36.886317632200402</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>37.4355079640805</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>38.022609552183503</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>38.6473470673916</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>39.309585492238803</v>
-      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
     </row>
     <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B4" s="28">
         <f>D4-0.2</f>
@@ -9748,152 +5716,152 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B5">
         <f>B4/B2</f>
         <v>0.25454031650339115</v>
       </c>
       <c r="C5" s="28">
-        <f t="shared" ref="C5:AJ5" si="2">C4/C2</f>
+        <f t="shared" ref="C5:AJ5" si="1">C4/C2</f>
         <v>0.22026410172807306</v>
       </c>
       <c r="D5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.27911167862630309</v>
+        <f t="shared" si="1"/>
+        <v>0.22600671140939599</v>
       </c>
       <c r="E5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.27001531621954511</v>
+        <f t="shared" si="1"/>
+        <v>0.22825560074105164</v>
       </c>
       <c r="F5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.25992650782452836</v>
+        <f t="shared" si="1"/>
+        <v>0.21794961306322008</v>
       </c>
       <c r="G5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.25029208510745804</v>
+        <f t="shared" si="1"/>
+        <v>0.21917481898875182</v>
       </c>
       <c r="H5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.23925009234772091</v>
+        <f t="shared" si="1"/>
+        <v>0.22131205070198362</v>
       </c>
       <c r="I5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.23184105387940951</v>
+        <f t="shared" si="1"/>
+        <v>0.21998759643702226</v>
       </c>
       <c r="J5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.23131340569141992</v>
+        <f t="shared" si="1"/>
+        <v>0.21609987410643972</v>
       </c>
       <c r="K5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.23055785986354246</v>
+        <f t="shared" si="1"/>
+        <v>0.21242336818979443</v>
       </c>
       <c r="L5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.22974958086394501</v>
+        <f t="shared" si="1"/>
+        <v>0.21034853733704248</v>
       </c>
       <c r="M5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.22892172321334953</v>
+        <f t="shared" si="1"/>
+        <v>0.20456265841947338</v>
       </c>
       <c r="N5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.22672089253225486</v>
+        <f t="shared" si="1"/>
+        <v>0.20273074132765981</v>
       </c>
       <c r="O5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.22557343318256282</v>
+        <f t="shared" si="1"/>
+        <v>0.19700589614740815</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.2245614420064862</v>
+        <f t="shared" si="1"/>
+        <v>0.19551051619983104</v>
       </c>
       <c r="Q5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21250618470341284</v>
+        <f t="shared" si="1"/>
+        <v>0.19356902293016487</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.21130708751026145</v>
+        <f t="shared" si="1"/>
+        <v>0.19134127978285426</v>
       </c>
       <c r="S5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.2099034087613372</v>
+        <f t="shared" si="1"/>
+        <v>0.18944860312435621</v>
       </c>
       <c r="T5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.20802935267936998</v>
+        <f t="shared" si="1"/>
+        <v>0.18883201029313915</v>
       </c>
       <c r="U5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19855966171124378</v>
+        <f t="shared" si="1"/>
+        <v>0.18711755761059717</v>
       </c>
       <c r="V5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19709190184014952</v>
+        <f t="shared" si="1"/>
+        <v>0.18490150918526124</v>
       </c>
       <c r="W5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19581036496611171</v>
+        <f t="shared" si="1"/>
+        <v>0.18534020207550989</v>
       </c>
       <c r="X5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19387911700174931</v>
+        <f t="shared" si="1"/>
+        <v>0.18422284387693524</v>
       </c>
       <c r="Y5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19181223509431092</v>
+        <f t="shared" si="1"/>
+        <v>0.18320513039229752</v>
       </c>
       <c r="Z5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.18997444793698276</v>
+        <f t="shared" si="1"/>
+        <v>0.18233420009103476</v>
       </c>
       <c r="AA5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.18768493498632516</v>
+        <f t="shared" si="1"/>
+        <v>0.18218886066439083</v>
       </c>
       <c r="AB5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.18051697235557101</v>
+        <f t="shared" si="1"/>
+        <v>0.18111561225990799</v>
       </c>
       <c r="AC5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17741689804424035</v>
+        <f t="shared" si="1"/>
+        <v>0.18112505945087642</v>
       </c>
       <c r="AD5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17508057984834943</v>
+        <f t="shared" si="1"/>
+        <v>0.18187538309645801</v>
       </c>
       <c r="AE5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17280788310289474</v>
+        <f t="shared" si="1"/>
+        <v>0.18161691752904616</v>
       </c>
       <c r="AF5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.17041412625938573</v>
+        <f t="shared" si="1"/>
+        <v>0.18244956825626163</v>
       </c>
       <c r="AG5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.16791409899523724</v>
+        <f t="shared" si="1"/>
+        <v>0.18340027620922103</v>
       </c>
       <c r="AH5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.16532136179634269</v>
+        <f t="shared" si="1"/>
+        <v>0.18318142213755989</v>
       </c>
       <c r="AI5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.162648928508765</v>
+        <f t="shared" si="1"/>
+        <v>0.18358834990790052</v>
       </c>
       <c r="AJ5" s="28">
-        <f t="shared" si="2"/>
-        <v>0.15990882405663343</v>
+        <f t="shared" si="1"/>
+        <v>0.18373922236181825</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -9901,7 +5869,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -9918,6 +5886,3026 @@
       </c>
       <c r="B11" s="28">
         <v>2.6539999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AJ4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="28">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="28">
+        <f>B1+1</f>
+        <v>2017</v>
+      </c>
+      <c r="D1" s="28">
+        <f>C1+1</f>
+        <v>2018</v>
+      </c>
+      <c r="E1" s="28">
+        <f t="shared" ref="E1:AJ1" si="0">D1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="F1" s="28">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="G1" s="28">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="H1" s="28">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="I1" s="28">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="J1" s="28">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="K1" s="28">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="L1" s="28">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="M1" s="28">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="N1" s="28">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="O1" s="28">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="P1" s="28">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="28">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="R1" s="28">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="S1" s="28">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="T1" s="28">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="U1" s="28">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="V1" s="28">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="W1" s="28">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="X1" s="28">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="28">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="28">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="28">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="28">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="28">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="28">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="28">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="28">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="28">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="28">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="28">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="28">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4.3378985347546415</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4.7007472474704333</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4.7258714133519124</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4.722226791766043</v>
+      </c>
+      <c r="F2" s="28">
+        <v>4.7401946878660697</v>
+      </c>
+      <c r="G2" s="28">
+        <v>4.7592788313638881</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4.766189843416667</v>
+      </c>
+      <c r="I2" s="28">
+        <v>4.7050550976587449</v>
+      </c>
+      <c r="J2" s="28">
+        <v>4.6989774299765914</v>
+      </c>
+      <c r="K2" s="28">
+        <v>4.6928095042850444</v>
+      </c>
+      <c r="L2" s="28">
+        <v>4.6862898491127352</v>
+      </c>
+      <c r="M2" s="28">
+        <v>4.6792811274817065</v>
+      </c>
+      <c r="N2" s="28">
+        <v>4.6716331040466539</v>
+      </c>
+      <c r="O2" s="28">
+        <v>4.6631661770616155</v>
+      </c>
+      <c r="P2" s="28">
+        <v>4.6534823240974532</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>5.0641277945056791</v>
+      </c>
+      <c r="R2" s="28">
+        <v>5.0518863845997348</v>
+      </c>
+      <c r="S2" s="28">
+        <v>5.0389704593867375</v>
+      </c>
+      <c r="T2" s="28">
+        <v>5.0241563540952709</v>
+      </c>
+      <c r="U2" s="28">
+        <v>5.4268900676355747</v>
+      </c>
+      <c r="V2" s="28">
+        <v>5.3995408352377581</v>
+      </c>
+      <c r="W2" s="28">
+        <v>5.3833346900831538</v>
+      </c>
+      <c r="X2" s="28">
+        <v>5.3509536887255571</v>
+      </c>
+      <c r="Y2" s="28">
+        <v>5.3173186599721749</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>5.2619711701955767</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>5.2369415288573054</v>
+      </c>
+      <c r="AB2" s="28">
+        <v>5.9946793778961425</v>
+      </c>
+      <c r="AC2" s="28">
+        <v>6.0055323075104017</v>
+      </c>
+      <c r="AD2" s="28">
+        <v>6.010445218480795</v>
+      </c>
+      <c r="AE2" s="28">
+        <v>6.0140554455173643</v>
+      </c>
+      <c r="AF2" s="28">
+        <v>6.0177373238520522</v>
+      </c>
+      <c r="AG2" s="28">
+        <v>6.021492150290495</v>
+      </c>
+      <c r="AH2" s="28">
+        <v>6.0253435360044652</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>6.0292500785522209</v>
+      </c>
+      <c r="AJ2" s="28">
+        <v>6.0405179306778125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="28">
+        <f>D3-0.2</f>
+        <v>0.67555000000000009</v>
+      </c>
+      <c r="C3" s="28">
+        <f>D3-0.2</f>
+        <v>0.67555000000000009</v>
+      </c>
+      <c r="D3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="E3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="F3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="G3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="H3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="I3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="J3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="K3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="L3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="M3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="N3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="O3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="P3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="Q3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="R3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="S3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="T3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="U3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="V3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="W3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="X3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="Y3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="Z3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AA3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AB3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AC3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AD3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AE3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AF3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AG3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AH3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AI3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="AJ3" s="28">
+        <f>'gasoline-diesel tax details'!$J$7</f>
+        <v>0.87555000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="28">
+        <f t="shared" ref="B4:AJ4" si="1">B3/B2</f>
+        <v>0.15573208884154094</v>
+      </c>
+      <c r="C4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14371119407952154</v>
+      </c>
+      <c r="D4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18526741915286263</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18541040881955551</v>
+      </c>
+      <c r="F4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18470760330608979</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18396694772957645</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18370019423572889</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.186087087574315</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18632777302025938</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18657267020971721</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1868322336412396</v>
+      </c>
+      <c r="M4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1871120747282827</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.18741839962594295</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1877586958635275</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1881494199443024</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17289255633515552</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17331149858576453</v>
+      </c>
+      <c r="S4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17375573186165452</v>
+      </c>
+      <c r="T4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17426806378872448</v>
+      </c>
+      <c r="U4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16133549585268561</v>
+      </c>
+      <c r="V4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16215267681394374</v>
+      </c>
+      <c r="W4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16264082588305054</v>
+      </c>
+      <c r="X4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16362503787778637</v>
+      </c>
+      <c r="Y4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16466005819643348</v>
+      </c>
+      <c r="Z4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16639201768326253</v>
+      </c>
+      <c r="AA4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16718727814229464</v>
+      </c>
+      <c r="AB4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1460545168150891</v>
+      </c>
+      <c r="AC4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14579057361910355</v>
+      </c>
+      <c r="AD4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14567140505796089</v>
+      </c>
+      <c r="AE4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14558395876655908</v>
+      </c>
+      <c r="AF4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1454948850176043</v>
+      </c>
+      <c r="AG4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14540415866153059</v>
+      </c>
+      <c r="AH4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14531121665812868</v>
+      </c>
+      <c r="AI4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14521706490738934</v>
+      </c>
+      <c r="AJ4" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14494618012031193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="28">
+        <v>3.0670000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="28">
+        <v>2.6539999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="28">
+        <v>4.3378985347546415</v>
+      </c>
+      <c r="C13" s="28">
+        <v>4.7007472474704333</v>
+      </c>
+      <c r="D13" s="28">
+        <v>4.7258714133519124</v>
+      </c>
+      <c r="E13" s="28">
+        <v>4.722226791766043</v>
+      </c>
+      <c r="F13" s="28">
+        <v>4.7401946878660697</v>
+      </c>
+      <c r="G13" s="28">
+        <v>4.7592788313638881</v>
+      </c>
+      <c r="H13" s="28">
+        <v>4.766189843416667</v>
+      </c>
+      <c r="I13" s="28">
+        <v>4.7050550976587449</v>
+      </c>
+      <c r="J13" s="28">
+        <v>4.6989774299765914</v>
+      </c>
+      <c r="K13" s="28">
+        <v>4.6928095042850444</v>
+      </c>
+      <c r="L13" s="28">
+        <v>4.6862898491127352</v>
+      </c>
+      <c r="M13" s="28">
+        <v>4.6792811274817065</v>
+      </c>
+      <c r="N13" s="28">
+        <v>4.6716331040466539</v>
+      </c>
+      <c r="O13" s="28">
+        <v>4.6631661770616155</v>
+      </c>
+      <c r="P13" s="28">
+        <v>4.6534823240974532</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>5.0641277945056791</v>
+      </c>
+      <c r="R13" s="28">
+        <v>5.0518863845997348</v>
+      </c>
+      <c r="S13" s="28">
+        <v>5.0389704593867375</v>
+      </c>
+      <c r="T13" s="28">
+        <v>5.0241563540952709</v>
+      </c>
+      <c r="U13" s="28">
+        <v>5.4268900676355747</v>
+      </c>
+      <c r="V13" s="28">
+        <v>5.3995408352377581</v>
+      </c>
+      <c r="W13" s="28">
+        <v>5.3833346900831538</v>
+      </c>
+      <c r="X13" s="28">
+        <v>5.3509536887255571</v>
+      </c>
+      <c r="Y13" s="28">
+        <v>5.3173186599721749</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>5.2619711701955767</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>5.2369415288573054</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>5.9946793778961425</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>6.0055323075104017</v>
+      </c>
+      <c r="AD13" s="28">
+        <v>6.010445218480795</v>
+      </c>
+      <c r="AE13" s="28">
+        <v>6.0140554455173643</v>
+      </c>
+      <c r="AF13" s="28">
+        <v>6.0177373238520522</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>6.021492150290495</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>6.0253435360044652</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>6.0292500785522209</v>
+      </c>
+      <c r="AJ13" s="28">
+        <v>6.0405179306778125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z2" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA2" s="50">
+        <f>TREND($Q2:$Z2,$Q$1:$Z$1,AA$1)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB2" s="50">
+        <f t="shared" ref="AB2:AJ2" si="0">TREND($Q2:$Z2,$Q$1:$Z$1,AB$1)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ2" s="50">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z3" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>TREND($Q3:$Z3,$Q$1:$Z$1,AA$1)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB3" s="50">
+        <f t="shared" ref="AB3:AJ3" si="1">TREND($Q3:$Z3,$Q$1:$Z$1,AB$1)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ3" s="50">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="C4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="D4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="E4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="F4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="G4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="H4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="I4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="J4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="K4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="L4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="M4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="N4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="O4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="P4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="R4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="S4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="T4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="U4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="V4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="W4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="X4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="Z4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AA4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AB4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AC4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AD4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AE4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AF4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AG4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AH4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AI4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+      <c r="AJ4" s="50">
+        <f>'natural gas PPP surcharge'!$H$30</f>
+        <v>7.3599291038765891E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z5" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA5" s="50">
+        <f t="shared" ref="AA5:AJ9" si="2">TREND($Q5:$Z5,$Q$1:$Z$1,AA$1)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="50">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0</v>
+      </c>
+      <c r="R6" s="50">
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <v>0</v>
+      </c>
+      <c r="W6" s="50">
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="50">
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0</v>
+      </c>
+      <c r="D7" s="50">
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>0</v>
+      </c>
+      <c r="R7" s="50">
+        <v>0</v>
+      </c>
+      <c r="S7" s="50">
+        <v>0</v>
+      </c>
+      <c r="T7" s="50">
+        <v>0</v>
+      </c>
+      <c r="U7" s="50">
+        <v>0</v>
+      </c>
+      <c r="V7" s="50">
+        <v>0</v>
+      </c>
+      <c r="W7" s="50">
+        <v>0</v>
+      </c>
+      <c r="X7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="50">
+        <v>0</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0</v>
+      </c>
+      <c r="F8" s="50">
+        <v>0</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0</v>
+      </c>
+      <c r="O8" s="50">
+        <v>0</v>
+      </c>
+      <c r="P8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>0</v>
+      </c>
+      <c r="R8" s="50">
+        <v>0</v>
+      </c>
+      <c r="S8" s="50">
+        <v>0</v>
+      </c>
+      <c r="T8" s="50">
+        <v>0</v>
+      </c>
+      <c r="U8" s="50">
+        <v>0</v>
+      </c>
+      <c r="V8" s="50">
+        <v>0</v>
+      </c>
+      <c r="W8" s="50">
+        <v>0</v>
+      </c>
+      <c r="X8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z9" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ9" s="50">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="50">
+        <f>'gas calculations'!B4</f>
+        <v>0.2417505391804457</v>
+      </c>
+      <c r="C10" s="50">
+        <f>'gas calculations'!C4</f>
+        <v>0.21836038961038959</v>
+      </c>
+      <c r="D10" s="50">
+        <f>'gas calculations'!D4</f>
+        <v>0.18939735285834974</v>
+      </c>
+      <c r="E10" s="50">
+        <f>'gas calculations'!E4</f>
+        <v>0.18802448168251479</v>
+      </c>
+      <c r="F10" s="50">
+        <f>'gas calculations'!F4</f>
+        <v>0.18251664272938156</v>
+      </c>
+      <c r="G10" s="50">
+        <f>'gas calculations'!G4</f>
+        <v>0.18112586764899993</v>
+      </c>
+      <c r="H10" s="50">
+        <f>'gas calculations'!H4</f>
+        <v>0.18059910592840861</v>
+      </c>
+      <c r="I10" s="50">
+        <f>'gas calculations'!I4</f>
+        <v>0.17808851746674226</v>
+      </c>
+      <c r="J10" s="50">
+        <f>'gas calculations'!J4</f>
+        <v>0.17563223878573264</v>
+      </c>
+      <c r="K10" s="50">
+        <f>'gas calculations'!K4</f>
+        <v>0.17368227220335991</v>
+      </c>
+      <c r="L10" s="50">
+        <f>'gas calculations'!L4</f>
+        <v>0.17226193656631328</v>
+      </c>
+      <c r="M10" s="50">
+        <f>'gas calculations'!M4</f>
+        <v>0.16877289240460686</v>
+      </c>
+      <c r="N10" s="50">
+        <f>'gas calculations'!N4</f>
+        <v>0.16757395389506227</v>
+      </c>
+      <c r="O10" s="50">
+        <f>'gas calculations'!O4</f>
+        <v>0.16356815936094868</v>
+      </c>
+      <c r="P10" s="50">
+        <f>'gas calculations'!P4</f>
+        <v>0.16289041447760899</v>
+      </c>
+      <c r="Q10" s="50">
+        <f>'gas calculations'!Q4</f>
+        <v>0.16113528997554419</v>
+      </c>
+      <c r="R10" s="50">
+        <f>'gas calculations'!R4</f>
+        <v>0.15979098348587326</v>
+      </c>
+      <c r="S10" s="50">
+        <f>'gas calculations'!S4</f>
+        <v>0.15914033949429784</v>
+      </c>
+      <c r="T10" s="50">
+        <f>'gas calculations'!T4</f>
+        <v>0.15798366265946212</v>
+      </c>
+      <c r="U10" s="50">
+        <f>'gas calculations'!U4</f>
+        <v>0.15697290584308299</v>
+      </c>
+      <c r="V10" s="50">
+        <f>'gas calculations'!V4</f>
+        <v>0.15567687613727094</v>
+      </c>
+      <c r="W10" s="50">
+        <f>'gas calculations'!W4</f>
+        <v>0.15568571873071735</v>
+      </c>
+      <c r="X10" s="50">
+        <f>'gas calculations'!X4</f>
+        <v>0.15479293437518191</v>
+      </c>
+      <c r="Y10" s="50">
+        <f>'gas calculations'!Y4</f>
+        <v>0.15381075372235892</v>
+      </c>
+      <c r="Z10" s="50">
+        <f>'gas calculations'!Z4</f>
+        <v>0.15273523725805363</v>
+      </c>
+      <c r="AA10" s="50">
+        <f>'gas calculations'!AA4</f>
+        <v>0.15220604856329875</v>
+      </c>
+      <c r="AB10" s="50">
+        <f>'gas calculations'!AB4</f>
+        <v>0.15101909636648991</v>
+      </c>
+      <c r="AC10" s="50">
+        <f>'gas calculations'!AC4</f>
+        <v>0.15078051714550833</v>
+      </c>
+      <c r="AD10" s="50">
+        <f>'gas calculations'!AD4</f>
+        <v>0.15077664708144917</v>
+      </c>
+      <c r="AE10" s="50">
+        <f>'gas calculations'!AE4</f>
+        <v>0.15044744668388083</v>
+      </c>
+      <c r="AF10" s="50">
+        <f>'gas calculations'!AF4</f>
+        <v>0.14997505005798956</v>
+      </c>
+      <c r="AG10" s="50">
+        <f>'gas calculations'!AG4</f>
+        <v>0.14960191696329447</v>
+      </c>
+      <c r="AH10" s="50">
+        <f>'gas calculations'!AH4</f>
+        <v>0.14888598722744584</v>
+      </c>
+      <c r="AI10" s="50">
+        <f>'gas calculations'!AI4</f>
+        <v>0.14880665416726424</v>
+      </c>
+      <c r="AJ10" s="50">
+        <f>'gas calculations'!AJ4</f>
+        <v>0.14884558016085755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="50">
+        <f>'diesel calculations'!B5</f>
+        <v>0.25454031650339115</v>
+      </c>
+      <c r="C11" s="50">
+        <f>'diesel calculations'!C5</f>
+        <v>0.22026410172807306</v>
+      </c>
+      <c r="D11" s="50">
+        <f>'diesel calculations'!D5</f>
+        <v>0.22600671140939599</v>
+      </c>
+      <c r="E11" s="50">
+        <f>'diesel calculations'!E5</f>
+        <v>0.22825560074105164</v>
+      </c>
+      <c r="F11" s="50">
+        <f>'diesel calculations'!F5</f>
+        <v>0.21794961306322008</v>
+      </c>
+      <c r="G11" s="50">
+        <f>'diesel calculations'!G5</f>
+        <v>0.21917481898875182</v>
+      </c>
+      <c r="H11" s="50">
+        <f>'diesel calculations'!H5</f>
+        <v>0.22131205070198362</v>
+      </c>
+      <c r="I11" s="50">
+        <f>'diesel calculations'!I5</f>
+        <v>0.21998759643702226</v>
+      </c>
+      <c r="J11" s="50">
+        <f>'diesel calculations'!J5</f>
+        <v>0.21609987410643972</v>
+      </c>
+      <c r="K11" s="50">
+        <f>'diesel calculations'!K5</f>
+        <v>0.21242336818979443</v>
+      </c>
+      <c r="L11" s="50">
+        <f>'diesel calculations'!L5</f>
+        <v>0.21034853733704248</v>
+      </c>
+      <c r="M11" s="50">
+        <f>'diesel calculations'!M5</f>
+        <v>0.20456265841947338</v>
+      </c>
+      <c r="N11" s="50">
+        <f>'diesel calculations'!N5</f>
+        <v>0.20273074132765981</v>
+      </c>
+      <c r="O11" s="50">
+        <f>'diesel calculations'!O5</f>
+        <v>0.19700589614740815</v>
+      </c>
+      <c r="P11" s="50">
+        <f>'diesel calculations'!P5</f>
+        <v>0.19551051619983104</v>
+      </c>
+      <c r="Q11" s="50">
+        <f>'diesel calculations'!Q5</f>
+        <v>0.19356902293016487</v>
+      </c>
+      <c r="R11" s="50">
+        <f>'diesel calculations'!R5</f>
+        <v>0.19134127978285426</v>
+      </c>
+      <c r="S11" s="50">
+        <f>'diesel calculations'!S5</f>
+        <v>0.18944860312435621</v>
+      </c>
+      <c r="T11" s="50">
+        <f>'diesel calculations'!T5</f>
+        <v>0.18883201029313915</v>
+      </c>
+      <c r="U11" s="50">
+        <f>'diesel calculations'!U5</f>
+        <v>0.18711755761059717</v>
+      </c>
+      <c r="V11" s="50">
+        <f>'diesel calculations'!V5</f>
+        <v>0.18490150918526124</v>
+      </c>
+      <c r="W11" s="50">
+        <f>'diesel calculations'!W5</f>
+        <v>0.18534020207550989</v>
+      </c>
+      <c r="X11" s="50">
+        <f>'diesel calculations'!X5</f>
+        <v>0.18422284387693524</v>
+      </c>
+      <c r="Y11" s="50">
+        <f>'diesel calculations'!Y5</f>
+        <v>0.18320513039229752</v>
+      </c>
+      <c r="Z11" s="50">
+        <f>'diesel calculations'!Z5</f>
+        <v>0.18233420009103476</v>
+      </c>
+      <c r="AA11" s="50">
+        <f>'diesel calculations'!AA5</f>
+        <v>0.18218886066439083</v>
+      </c>
+      <c r="AB11" s="50">
+        <f>'diesel calculations'!AB5</f>
+        <v>0.18111561225990799</v>
+      </c>
+      <c r="AC11" s="50">
+        <f>'diesel calculations'!AC5</f>
+        <v>0.18112505945087642</v>
+      </c>
+      <c r="AD11" s="50">
+        <f>'diesel calculations'!AD5</f>
+        <v>0.18187538309645801</v>
+      </c>
+      <c r="AE11" s="50">
+        <f>'diesel calculations'!AE5</f>
+        <v>0.18161691752904616</v>
+      </c>
+      <c r="AF11" s="50">
+        <f>'diesel calculations'!AF5</f>
+        <v>0.18244956825626163</v>
+      </c>
+      <c r="AG11" s="50">
+        <f>'diesel calculations'!AG5</f>
+        <v>0.18340027620922103</v>
+      </c>
+      <c r="AH11" s="50">
+        <f>'diesel calculations'!AH5</f>
+        <v>0.18318142213755989</v>
+      </c>
+      <c r="AI11" s="50">
+        <f>'diesel calculations'!AI5</f>
+        <v>0.18358834990790052</v>
+      </c>
+      <c r="AJ11" s="50">
+        <f>'diesel calculations'!AJ5</f>
+        <v>0.18373922236181825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="50">
+        <v>0.19861610352264558</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0.21836038961038959</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0.21689100149552315</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0.21530233805822885</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0.21170262136661136</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0.20788081913341408</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0.20491971139182596</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0.20209087149576749</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0.19940104563009312</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.19596039395205811</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0.19273115706027849</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0.18940075447800386</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0.18539248524787638</v>
+      </c>
+      <c r="O12" s="50">
+        <v>0.1817968549585163</v>
+      </c>
+      <c r="P12" s="50">
+        <v>0.17835214010444056</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>0.1749895339560027</v>
+      </c>
+      <c r="R12" s="50">
+        <v>0.17089313873424322</v>
+      </c>
+      <c r="S12" s="50">
+        <v>0.16692721634667651</v>
+      </c>
+      <c r="T12" s="50">
+        <v>0.16328191355428578</v>
+      </c>
+      <c r="U12" s="50">
+        <v>0.15967515110409194</v>
+      </c>
+      <c r="V12" s="50">
+        <v>0.15619328351364981</v>
+      </c>
+      <c r="W12" s="50">
+        <v>0.15324772345066542</v>
+      </c>
+      <c r="X12" s="50">
+        <v>0.14976701296334261</v>
+      </c>
+      <c r="Y12" s="50">
+        <v>0.1459984819528341</v>
+      </c>
+      <c r="Z12" s="50">
+        <v>0.14279588618846051</v>
+      </c>
+      <c r="AA12" s="50">
+        <v>0.13964285863184314</v>
+      </c>
+      <c r="AB12" s="50">
+        <v>0.13656597596929518</v>
+      </c>
+      <c r="AC12" s="50">
+        <v>0.1335631158609728</v>
+      </c>
+      <c r="AD12" s="50">
+        <v>0.13063222749804115</v>
+      </c>
+      <c r="AE12" s="50">
+        <v>0.12777132871434041</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>0.12497850301710119</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>0.12225189708405221</v>
+      </c>
+      <c r="AH12" s="50">
+        <v>0.11958971805738942</v>
+      </c>
+      <c r="AI12" s="50">
+        <v>0.11699023136195751</v>
+      </c>
+      <c r="AJ12" s="50">
+        <v>0.11445078171267192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="50">
+        <f>'biodiesel calculations'!B4</f>
+        <v>0.15573208884154094</v>
+      </c>
+      <c r="C13" s="50">
+        <f>'biodiesel calculations'!C4</f>
+        <v>0.14371119407952154</v>
+      </c>
+      <c r="D13" s="50">
+        <f>'biodiesel calculations'!D4</f>
+        <v>0.18526741915286263</v>
+      </c>
+      <c r="E13" s="50">
+        <f>'biodiesel calculations'!E4</f>
+        <v>0.18541040881955551</v>
+      </c>
+      <c r="F13" s="50">
+        <f>'biodiesel calculations'!F4</f>
+        <v>0.18470760330608979</v>
+      </c>
+      <c r="G13" s="50">
+        <f>'biodiesel calculations'!G4</f>
+        <v>0.18396694772957645</v>
+      </c>
+      <c r="H13" s="50">
+        <f>'biodiesel calculations'!H4</f>
+        <v>0.18370019423572889</v>
+      </c>
+      <c r="I13" s="50">
+        <f>'biodiesel calculations'!I4</f>
+        <v>0.186087087574315</v>
+      </c>
+      <c r="J13" s="50">
+        <f>'biodiesel calculations'!J4</f>
+        <v>0.18632777302025938</v>
+      </c>
+      <c r="K13" s="50">
+        <f>'biodiesel calculations'!K4</f>
+        <v>0.18657267020971721</v>
+      </c>
+      <c r="L13" s="50">
+        <f>'biodiesel calculations'!L4</f>
+        <v>0.1868322336412396</v>
+      </c>
+      <c r="M13" s="50">
+        <f>'biodiesel calculations'!M4</f>
+        <v>0.1871120747282827</v>
+      </c>
+      <c r="N13" s="50">
+        <f>'biodiesel calculations'!N4</f>
+        <v>0.18741839962594295</v>
+      </c>
+      <c r="O13" s="50">
+        <f>'biodiesel calculations'!O4</f>
+        <v>0.1877586958635275</v>
+      </c>
+      <c r="P13" s="50">
+        <f>'biodiesel calculations'!P4</f>
+        <v>0.1881494199443024</v>
+      </c>
+      <c r="Q13" s="50">
+        <f>'biodiesel calculations'!Q4</f>
+        <v>0.17289255633515552</v>
+      </c>
+      <c r="R13" s="50">
+        <f>'biodiesel calculations'!R4</f>
+        <v>0.17331149858576453</v>
+      </c>
+      <c r="S13" s="50">
+        <f>'biodiesel calculations'!S4</f>
+        <v>0.17375573186165452</v>
+      </c>
+      <c r="T13" s="50">
+        <f>'biodiesel calculations'!T4</f>
+        <v>0.17426806378872448</v>
+      </c>
+      <c r="U13" s="50">
+        <f>'biodiesel calculations'!U4</f>
+        <v>0.16133549585268561</v>
+      </c>
+      <c r="V13" s="50">
+        <f>'biodiesel calculations'!V4</f>
+        <v>0.16215267681394374</v>
+      </c>
+      <c r="W13" s="50">
+        <f>'biodiesel calculations'!W4</f>
+        <v>0.16264082588305054</v>
+      </c>
+      <c r="X13" s="50">
+        <f>'biodiesel calculations'!X4</f>
+        <v>0.16362503787778637</v>
+      </c>
+      <c r="Y13" s="50">
+        <f>'biodiesel calculations'!Y4</f>
+        <v>0.16466005819643348</v>
+      </c>
+      <c r="Z13" s="50">
+        <f>'biodiesel calculations'!Z4</f>
+        <v>0.16639201768326253</v>
+      </c>
+      <c r="AA13" s="50">
+        <f>'biodiesel calculations'!AA4</f>
+        <v>0.16718727814229464</v>
+      </c>
+      <c r="AB13" s="50">
+        <f>'biodiesel calculations'!AB4</f>
+        <v>0.1460545168150891</v>
+      </c>
+      <c r="AC13" s="50">
+        <f>'biodiesel calculations'!AC4</f>
+        <v>0.14579057361910355</v>
+      </c>
+      <c r="AD13" s="50">
+        <f>'biodiesel calculations'!AD4</f>
+        <v>0.14567140505796089</v>
+      </c>
+      <c r="AE13" s="50">
+        <f>'biodiesel calculations'!AE4</f>
+        <v>0.14558395876655908</v>
+      </c>
+      <c r="AF13" s="50">
+        <f>'biodiesel calculations'!AF4</f>
+        <v>0.1454948850176043</v>
+      </c>
+      <c r="AG13" s="50">
+        <f>'biodiesel calculations'!AG4</f>
+        <v>0.14540415866153059</v>
+      </c>
+      <c r="AH13" s="50">
+        <f>'biodiesel calculations'!AH4</f>
+        <v>0.14531121665812868</v>
+      </c>
+      <c r="AI13" s="50">
+        <f>'biodiesel calculations'!AI4</f>
+        <v>0.14521706490738934</v>
+      </c>
+      <c r="AJ13" s="50">
+        <f>'biodiesel calculations'!AJ4</f>
+        <v>0.14494618012031193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="50">
+        <f>SUM('AEO Table 59'!E33:E34)/('AEO Table 59'!E32-SUM('AEO Table 59'!E33:E34))</f>
+        <v>7.9100593914764455E-2</v>
+      </c>
+      <c r="C14" s="50">
+        <f>SUM('AEO Table 59'!F33:F34)/('AEO Table 59'!F32-SUM('AEO Table 59'!F33:F34))</f>
+        <v>6.1016347719941945E-2</v>
+      </c>
+      <c r="D14" s="50">
+        <f>SUM('AEO Table 59'!G33:G34)/('AEO Table 59'!G32-SUM('AEO Table 59'!G33:G34))</f>
+        <v>5.2898851339937797E-2</v>
+      </c>
+      <c r="E14" s="50">
+        <f>SUM('AEO Table 59'!H33:H34)/('AEO Table 59'!H32-SUM('AEO Table 59'!H33:H34))</f>
+        <v>4.3467152777098145E-2</v>
+      </c>
+      <c r="F14" s="50">
+        <f>SUM('AEO Table 59'!I33:I34)/('AEO Table 59'!I32-SUM('AEO Table 59'!I33:I34))</f>
+        <v>3.977281112199145E-2</v>
+      </c>
+      <c r="G14" s="50">
+        <f>SUM('AEO Table 59'!J33:J34)/('AEO Table 59'!J32-SUM('AEO Table 59'!J33:J34))</f>
+        <v>3.7201766655127248E-2</v>
+      </c>
+      <c r="H14" s="50">
+        <f>SUM('AEO Table 59'!K33:K34)/('AEO Table 59'!K32-SUM('AEO Table 59'!K33:K34))</f>
+        <v>3.5395028859064176E-2</v>
+      </c>
+      <c r="I14" s="50">
+        <f>SUM('AEO Table 59'!L33:L34)/('AEO Table 59'!L32-SUM('AEO Table 59'!L33:L34))</f>
+        <v>3.4250055863373187E-2</v>
+      </c>
+      <c r="J14" s="50">
+        <f>SUM('AEO Table 59'!M33:M34)/('AEO Table 59'!M32-SUM('AEO Table 59'!M33:M34))</f>
+        <v>3.3247502385571136E-2</v>
+      </c>
+      <c r="K14" s="50">
+        <f>SUM('AEO Table 59'!N33:N34)/('AEO Table 59'!N32-SUM('AEO Table 59'!N33:N34))</f>
+        <v>3.2128028671409244E-2</v>
+      </c>
+      <c r="L14" s="50">
+        <f>SUM('AEO Table 59'!O33:O34)/('AEO Table 59'!O32-SUM('AEO Table 59'!O33:O34))</f>
+        <v>3.0853106438632656E-2</v>
+      </c>
+      <c r="M14" s="50">
+        <f>SUM('AEO Table 59'!P33:P34)/('AEO Table 59'!P32-SUM('AEO Table 59'!P33:P34))</f>
+        <v>2.9862625979502049E-2</v>
+      </c>
+      <c r="N14" s="50">
+        <f>SUM('AEO Table 59'!Q33:Q34)/('AEO Table 59'!Q32-SUM('AEO Table 59'!Q33:Q34))</f>
+        <v>2.9024651805334232E-2</v>
+      </c>
+      <c r="O14" s="50">
+        <f>SUM('AEO Table 59'!R33:R34)/('AEO Table 59'!R32-SUM('AEO Table 59'!R33:R34))</f>
+        <v>2.8082735428540825E-2</v>
+      </c>
+      <c r="P14" s="50">
+        <f>SUM('AEO Table 59'!S33:S34)/('AEO Table 59'!S32-SUM('AEO Table 59'!S33:S34))</f>
+        <v>2.7316418727623481E-2</v>
+      </c>
+      <c r="Q14" s="50">
+        <f>SUM('AEO Table 59'!T33:T34)/('AEO Table 59'!T32-SUM('AEO Table 59'!T33:T34))</f>
+        <v>2.6267361628746301E-2</v>
+      </c>
+      <c r="R14" s="50">
+        <f>SUM('AEO Table 59'!U33:U34)/('AEO Table 59'!U32-SUM('AEO Table 59'!U33:U34))</f>
+        <v>2.5240616478271419E-2</v>
+      </c>
+      <c r="S14" s="50">
+        <f>SUM('AEO Table 59'!V33:V34)/('AEO Table 59'!V32-SUM('AEO Table 59'!V33:V34))</f>
+        <v>2.4328408684329617E-2</v>
+      </c>
+      <c r="T14" s="50">
+        <f>SUM('AEO Table 59'!W33:W34)/('AEO Table 59'!W32-SUM('AEO Table 59'!W33:W34))</f>
+        <v>2.3323818759857031E-2</v>
+      </c>
+      <c r="U14" s="50">
+        <f>SUM('AEO Table 59'!X33:X34)/('AEO Table 59'!X32-SUM('AEO Table 59'!X33:X34))</f>
+        <v>2.2646446120721003E-2</v>
+      </c>
+      <c r="V14" s="50">
+        <f>SUM('AEO Table 59'!Y33:Y34)/('AEO Table 59'!Y32-SUM('AEO Table 59'!Y33:Y34))</f>
+        <v>2.1859605911330047E-2</v>
+      </c>
+      <c r="W14" s="50">
+        <f>SUM('AEO Table 59'!Z33:Z34)/('AEO Table 59'!Z32-SUM('AEO Table 59'!Z33:Z34))</f>
+        <v>2.1279458412027587E-2</v>
+      </c>
+      <c r="X14" s="50">
+        <f>SUM('AEO Table 59'!AA33:AA34)/('AEO Table 59'!AA32-SUM('AEO Table 59'!AA33:AA34))</f>
+        <v>2.0518184697868359E-2</v>
+      </c>
+      <c r="Y14" s="50">
+        <f>SUM('AEO Table 59'!AB33:AB34)/('AEO Table 59'!AB32-SUM('AEO Table 59'!AB33:AB34))</f>
+        <v>1.9845398450509935E-2</v>
+      </c>
+      <c r="Z14" s="50">
+        <f>SUM('AEO Table 59'!AC33:AC34)/('AEO Table 59'!AC32-SUM('AEO Table 59'!AC33:AC34))</f>
+        <v>1.9158580462276489E-2</v>
+      </c>
+      <c r="AA14" s="50">
+        <f t="shared" ref="AA14:AJ17" si="3">TREND($Q14:$Z14,$Q$1:$Z$1,AA$1)</f>
+        <v>1.8189568031335757E-2</v>
+      </c>
+      <c r="AB14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.7415528044197881E-2</v>
+      </c>
+      <c r="AC14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.6641488057060005E-2</v>
+      </c>
+      <c r="AD14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.586744806992213E-2</v>
+      </c>
+      <c r="AE14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.5093408082784476E-2</v>
+      </c>
+      <c r="AF14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.4319368095646601E-2</v>
+      </c>
+      <c r="AG14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.3545328108508725E-2</v>
+      </c>
+      <c r="AH14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.277128812137085E-2</v>
+      </c>
+      <c r="AI14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.1997248134232974E-2</v>
+      </c>
+      <c r="AJ14" s="50">
+        <f t="shared" si="3"/>
+        <v>1.1223208147095098E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z15" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ15" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="50">
+        <v>0</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
+        <v>0</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50">
+        <v>0</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0</v>
+      </c>
+      <c r="L16" s="50">
+        <v>0</v>
+      </c>
+      <c r="M16" s="50">
+        <v>0</v>
+      </c>
+      <c r="N16" s="50">
+        <v>0</v>
+      </c>
+      <c r="O16" s="50">
+        <v>0</v>
+      </c>
+      <c r="P16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>0</v>
+      </c>
+      <c r="R16" s="50">
+        <v>0</v>
+      </c>
+      <c r="S16" s="50">
+        <v>0</v>
+      </c>
+      <c r="T16" s="50">
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
+        <v>0</v>
+      </c>
+      <c r="V16" s="50">
+        <v>0</v>
+      </c>
+      <c r="W16" s="50">
+        <v>0</v>
+      </c>
+      <c r="X16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z17" s="50">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AB17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AC17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AD17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AE17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AF17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AG17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AH17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AI17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="AJ17" s="50">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000019E-2</v>
       </c>
     </row>
   </sheetData>
